--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_23_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_23_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-569962.894918635</v>
+        <v>-571567.3128449663</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>237.4845760736199</v>
       </c>
       <c r="D11" t="n">
         <v>226.8947259232953</v>
       </c>
       <c r="E11" t="n">
-        <v>27.05568194285058</v>
+        <v>171.1201965835764</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>284.7244505358284</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>183.1136930274268</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>123.3341395078953</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>199.9639427727472</v>
       </c>
       <c r="W11" t="n">
-        <v>221.4526530200253</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.9427849810813</v>
+        <v>241.9427849810814</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.4496229586659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.74486795247962</v>
+        <v>38.74486795247967</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>44.92018329092807</v>
       </c>
       <c r="D12" t="n">
-        <v>19.65674986725104</v>
+        <v>19.65674986725108</v>
       </c>
       <c r="E12" t="n">
-        <v>29.85676475801323</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>17.28089669599616</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>8.062435227577307</v>
+        <v>8.06243522757735</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>16.16737725307222</v>
+        <v>16.16737725307227</v>
       </c>
       <c r="T12" t="n">
-        <v>145.198181249611</v>
+        <v>127.0413316001722</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8431737758271</v>
+        <v>98.05485807843941</v>
       </c>
       <c r="V12" t="n">
         <v>105.0122714520376</v>
@@ -1512,10 +1512,10 @@
         <v>123.9066674635319</v>
       </c>
       <c r="X12" t="n">
-        <v>77.98466950608976</v>
+        <v>77.9846695060898</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>77.89438007991669</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04366448454958</v>
+        <v>52.04366448454962</v>
       </c>
       <c r="C13" t="n">
-        <v>39.45850540124012</v>
+        <v>39.45850540124016</v>
       </c>
       <c r="D13" t="n">
-        <v>20.82715732082464</v>
+        <v>20.82715732082468</v>
       </c>
       <c r="E13" t="n">
-        <v>18.64564694918145</v>
+        <v>18.6456469491815</v>
       </c>
       <c r="F13" t="n">
-        <v>17.63273232554353</v>
+        <v>17.63273232554357</v>
       </c>
       <c r="G13" t="n">
-        <v>38.95117859219386</v>
+        <v>38.95117859219391</v>
       </c>
       <c r="H13" t="n">
-        <v>23.31201683403474</v>
+        <v>23.31201683403479</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.41831073015224</v>
+        <v>74.41831073015229</v>
       </c>
       <c r="T13" t="n">
-        <v>94.81001934569129</v>
+        <v>94.81001934569133</v>
       </c>
       <c r="U13" t="n">
-        <v>158.4624508371644</v>
+        <v>158.4624508371645</v>
       </c>
       <c r="V13" t="n">
         <v>124.3493276264403</v>
@@ -1591,10 +1591,10 @@
         <v>158.7346826392033</v>
       </c>
       <c r="X13" t="n">
-        <v>97.92133969164944</v>
+        <v>97.92133969164948</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.79633765470707</v>
+        <v>90.79633765470712</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.9455259660929</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>237.4845760736199</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>254.1420543748741</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>279.0877300443238</v>
+        <v>279.0877300443237</v>
       </c>
       <c r="G14" t="n">
-        <v>284.7244505358285</v>
+        <v>284.7244505358284</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>83.09443458014337</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>123.3341395078953</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>154.6760751078058</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>221.4526530200253</v>
       </c>
       <c r="X14" t="n">
-        <v>52.50467498985694</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>258.4496229586659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.74486795247969</v>
+        <v>117.5835317000411</v>
       </c>
       <c r="C15" t="n">
-        <v>44.92018329092809</v>
+        <v>44.92018329092807</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>19.65674986725108</v>
       </c>
       <c r="E15" t="n">
-        <v>29.8567647580133</v>
+        <v>29.85676475801327</v>
       </c>
       <c r="F15" t="n">
-        <v>17.28089669599623</v>
+        <v>17.2808966959962</v>
       </c>
       <c r="G15" t="n">
-        <v>8.062435227577378</v>
+        <v>8.06243522757735</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>143.9556929504599</v>
+        <v>16.16737725307227</v>
       </c>
       <c r="T15" t="n">
-        <v>66.35951750204924</v>
+        <v>66.35951750204921</v>
       </c>
       <c r="U15" t="n">
-        <v>98.05485807843944</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V15" t="n">
-        <v>105.0122714520376</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>202.7453312110933</v>
+        <v>123.9066674635319</v>
       </c>
       <c r="X15" t="n">
-        <v>77.98466950608983</v>
+        <v>77.9846695060898</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.04366448454965</v>
+        <v>52.04366448454962</v>
       </c>
       <c r="C16" t="n">
-        <v>39.45850540124019</v>
+        <v>39.45850540124016</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082471</v>
+        <v>20.82715732082468</v>
       </c>
       <c r="E16" t="n">
-        <v>18.64564694918153</v>
+        <v>18.6456469491815</v>
       </c>
       <c r="F16" t="n">
-        <v>17.6327323255436</v>
+        <v>17.63273232554357</v>
       </c>
       <c r="G16" t="n">
-        <v>38.95117859219393</v>
+        <v>38.95117859219391</v>
       </c>
       <c r="H16" t="n">
-        <v>23.31201683403481</v>
+        <v>23.31201683403479</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.41831073015231</v>
+        <v>74.41831073015229</v>
       </c>
       <c r="T16" t="n">
-        <v>94.81001934569136</v>
+        <v>94.81001934569133</v>
       </c>
       <c r="U16" t="n">
         <v>158.4624508371645</v>
       </c>
       <c r="V16" t="n">
-        <v>124.3493276264404</v>
+        <v>124.3493276264403</v>
       </c>
       <c r="W16" t="n">
-        <v>158.7346826392034</v>
+        <v>158.7346826392033</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164951</v>
+        <v>97.92133969164948</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.79633765470714</v>
+        <v>90.79633765470712</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>139.8053726064066</v>
+        <v>139.8053726064067</v>
       </c>
       <c r="C17" t="n">
-        <v>122.3444227139336</v>
+        <v>122.3444227139337</v>
       </c>
       <c r="D17" t="n">
-        <v>111.754572563609</v>
+        <v>111.7545725636091</v>
       </c>
       <c r="E17" t="n">
         <v>139.0019010151879</v>
       </c>
       <c r="F17" t="n">
-        <v>163.9475766846375</v>
+        <v>163.9475766846376</v>
       </c>
       <c r="G17" t="n">
-        <v>169.5842971761422</v>
+        <v>169.5842971761423</v>
       </c>
       <c r="H17" t="n">
-        <v>67.97353966774051</v>
+        <v>67.9735396677406</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.193986148209063</v>
+        <v>8.193986148209149</v>
       </c>
       <c r="V17" t="n">
-        <v>84.82378941306098</v>
+        <v>84.82378941306106</v>
       </c>
       <c r="W17" t="n">
-        <v>106.3124996603391</v>
+        <v>106.3124996603392</v>
       </c>
       <c r="X17" t="n">
-        <v>126.8026316213951</v>
+        <v>126.8026316213952</v>
       </c>
       <c r="Y17" t="n">
         <v>143.3094695989797</v>
@@ -1926,22 +1926,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8431737758271</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>26.42749930901906</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>8.766514103845765</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>182.2549990343503</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>93.08189356270819</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.71019281646672</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>43.32229747747821</v>
+        <v>183.1143838566529</v>
       </c>
       <c r="V19" t="n">
-        <v>9.209174266754076</v>
+        <v>9.209174266754161</v>
       </c>
       <c r="W19" t="n">
-        <v>43.59452927951708</v>
+        <v>43.59452927951716</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>84.82378941306104</v>
       </c>
       <c r="W20" t="n">
-        <v>106.3124996603391</v>
+        <v>106.3124996603388</v>
       </c>
       <c r="X20" t="n">
         <v>126.8026316213952</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H21" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>25.03625444140878</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8431737758271</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>8.766514103845736</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.6947708341551</v>
       </c>
     </row>
     <row r="22">
@@ -2254,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>101.2766593093952</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>38.51542706977951</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>183.114383856653</v>
+        <v>43.32229747747827</v>
       </c>
       <c r="V22" t="n">
         <v>9.209174266754133</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.193986148209108</v>
+        <v>8.19398614820912</v>
       </c>
       <c r="V23" t="n">
         <v>84.82378941306104</v>
@@ -2403,16 +2403,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>121.5512262242567</v>
       </c>
       <c r="G24" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>8.766514103845736</v>
       </c>
       <c r="X24" t="n">
-        <v>30.03435134580369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.77001455351912</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.7920863791747</v>
       </c>
       <c r="U25" t="n">
         <v>43.32229747747827</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983051</v>
+        <v>30.30344563983049</v>
       </c>
       <c r="T26" t="n">
-        <v>95.74259691784489</v>
+        <v>95.74259691784488</v>
       </c>
       <c r="U26" t="n">
-        <v>135.9823018455969</v>
+        <v>135.9823018455968</v>
       </c>
       <c r="V26" t="n">
         <v>212.6121051104487</v>
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>51.39303029018117</v>
       </c>
       <c r="C27" t="n">
-        <v>57.56834562862959</v>
+        <v>57.56834562862957</v>
       </c>
       <c r="D27" t="n">
-        <v>32.3049122049526</v>
+        <v>32.30491220495259</v>
       </c>
       <c r="E27" t="n">
-        <v>42.50492709571479</v>
+        <v>42.50492709571478</v>
       </c>
       <c r="F27" t="n">
-        <v>29.92905903369773</v>
+        <v>29.92905903369771</v>
       </c>
       <c r="G27" t="n">
-        <v>20.71059756527887</v>
+        <v>20.71059756527886</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>96.31273332100628</v>
+        <v>28.81553959077377</v>
       </c>
       <c r="T27" t="n">
-        <v>194.1478331994369</v>
+        <v>146.5048735699833</v>
       </c>
       <c r="U27" t="n">
-        <v>110.7030204161409</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V27" t="n">
-        <v>117.6604337897391</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>136.5548298012334</v>
       </c>
       <c r="X27" t="n">
-        <v>90.63283184379132</v>
+        <v>90.63283184379131</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.54254241761821</v>
+        <v>90.54254241761819</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.69182682225114</v>
+        <v>64.69182682225113</v>
       </c>
       <c r="C28" t="n">
-        <v>52.10666773894168</v>
+        <v>52.10666773894167</v>
       </c>
       <c r="D28" t="n">
-        <v>33.4753196585262</v>
+        <v>33.47531965852619</v>
       </c>
       <c r="E28" t="n">
-        <v>31.29380928688302</v>
+        <v>31.293809286883</v>
       </c>
       <c r="F28" t="n">
-        <v>30.28089466324509</v>
+        <v>30.28089466324508</v>
       </c>
       <c r="G28" t="n">
-        <v>51.59934092989543</v>
+        <v>51.59934092989541</v>
       </c>
       <c r="H28" t="n">
-        <v>35.96017917173631</v>
+        <v>35.96017917173629</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405338381</v>
+        <v>2.674752405338367</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.88191846596942</v>
+        <v>5.881918465969406</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785381</v>
+        <v>87.06647306785379</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4581816833929</v>
+        <v>107.4581816833928</v>
       </c>
       <c r="U28" t="n">
         <v>171.110613174866</v>
@@ -2792,22 +2792,22 @@
         <v>267.5936883037944</v>
       </c>
       <c r="C29" t="n">
-        <v>250.1327384113213</v>
+        <v>250.1327384113214</v>
       </c>
       <c r="D29" t="n">
-        <v>239.5428882609967</v>
+        <v>239.5428882609968</v>
       </c>
       <c r="E29" t="n">
         <v>266.7902167125756</v>
       </c>
       <c r="F29" t="n">
-        <v>291.7358923820252</v>
+        <v>291.7358923820253</v>
       </c>
       <c r="G29" t="n">
         <v>297.3726128735299</v>
       </c>
       <c r="H29" t="n">
-        <v>195.7618553651282</v>
+        <v>195.7618553651283</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983042</v>
+        <v>30.3034456398305</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784481</v>
+        <v>95.74259691784488</v>
       </c>
       <c r="U29" t="n">
-        <v>135.9823018455967</v>
+        <v>135.9823018455968</v>
       </c>
       <c r="V29" t="n">
         <v>212.6121051104487</v>
@@ -2855,7 +2855,7 @@
         <v>234.1008153577268</v>
       </c>
       <c r="X29" t="n">
-        <v>254.5909473187828</v>
+        <v>254.5909473187829</v>
       </c>
       <c r="Y29" t="n">
         <v>271.0977852963674</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51.3930302901811</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>57.56834562862957</v>
       </c>
       <c r="D30" t="n">
-        <v>99.80210593518601</v>
+        <v>32.30491220495259</v>
       </c>
       <c r="E30" t="n">
-        <v>42.50492709571471</v>
+        <v>42.50492709571478</v>
       </c>
       <c r="F30" t="n">
-        <v>29.92905903369764</v>
+        <v>29.92905903369771</v>
       </c>
       <c r="G30" t="n">
-        <v>20.71059756527879</v>
+        <v>88.20779129551141</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>28.8155395907737</v>
+        <v>28.81553959077377</v>
       </c>
       <c r="T30" t="n">
-        <v>79.00767983975065</v>
+        <v>79.00767983975072</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8431737758271</v>
+        <v>110.7030204161409</v>
       </c>
       <c r="V30" t="n">
-        <v>117.660433789739</v>
+        <v>117.6604337897391</v>
       </c>
       <c r="W30" t="n">
         <v>136.5548298012334</v>
       </c>
       <c r="X30" t="n">
-        <v>90.63283184379124</v>
+        <v>90.63283184379131</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.54254241761812</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.69182682225106</v>
+        <v>64.69182682225113</v>
       </c>
       <c r="C31" t="n">
-        <v>52.1066677389416</v>
+        <v>52.10666773894167</v>
       </c>
       <c r="D31" t="n">
-        <v>33.47531965852612</v>
+        <v>33.47531965852619</v>
       </c>
       <c r="E31" t="n">
-        <v>31.29380928688293</v>
+        <v>31.293809286883</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324501</v>
+        <v>30.28089466324508</v>
       </c>
       <c r="G31" t="n">
-        <v>51.59934092989534</v>
+        <v>51.59934092989541</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173622</v>
+        <v>35.96017917173629</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405338296</v>
+        <v>2.674752405338367</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.881918465969335</v>
+        <v>5.881918465969406</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785372</v>
+        <v>87.06647306785379</v>
       </c>
       <c r="T31" t="n">
         <v>107.4581816833928</v>
       </c>
       <c r="U31" t="n">
-        <v>171.1106131748659</v>
+        <v>171.110613174866</v>
       </c>
       <c r="V31" t="n">
         <v>136.9974899641418</v>
@@ -3013,7 +3013,7 @@
         <v>171.3828449769048</v>
       </c>
       <c r="X31" t="n">
-        <v>110.5695020293509</v>
+        <v>110.569502029351</v>
       </c>
       <c r="Y31" t="n">
         <v>103.4444999924086</v>
@@ -3029,10 +3029,10 @@
         <v>267.5936883037945</v>
       </c>
       <c r="C32" t="n">
-        <v>250.1327384113214</v>
+        <v>250.1327384113215</v>
       </c>
       <c r="D32" t="n">
-        <v>239.5428882609968</v>
+        <v>239.5428882609969</v>
       </c>
       <c r="E32" t="n">
         <v>266.7902167125757</v>
@@ -3044,7 +3044,7 @@
         <v>297.37261287353</v>
       </c>
       <c r="H32" t="n">
-        <v>195.7618553651283</v>
+        <v>195.7618553651284</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30344563983053</v>
+        <v>30.30344563983058</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784491</v>
+        <v>95.74259691784496</v>
       </c>
       <c r="U32" t="n">
         <v>135.9823018455969</v>
@@ -3092,10 +3092,10 @@
         <v>234.1008153577269</v>
       </c>
       <c r="X32" t="n">
-        <v>254.5909473187829</v>
+        <v>254.590947318783</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.0977852963674</v>
+        <v>271.0977852963675</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.3930302901812</v>
+        <v>51.39303029018126</v>
       </c>
       <c r="C33" t="n">
-        <v>57.5683456286296</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>46.80505314931261</v>
+        <v>32.30491220495267</v>
       </c>
       <c r="E33" t="n">
-        <v>42.50492709571481</v>
+        <v>42.50492709571486</v>
       </c>
       <c r="F33" t="n">
-        <v>29.92905903369774</v>
+        <v>29.9290590336978</v>
       </c>
       <c r="G33" t="n">
-        <v>20.71059756527888</v>
+        <v>20.71059756527894</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>28.8155395907738</v>
+        <v>28.81553959077386</v>
       </c>
       <c r="T33" t="n">
-        <v>194.1478331994369</v>
+        <v>146.5048735699824</v>
       </c>
       <c r="U33" t="n">
-        <v>110.7030204161409</v>
+        <v>110.703020416141</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>117.6604337897392</v>
       </c>
       <c r="W33" t="n">
         <v>136.5548298012335</v>
       </c>
       <c r="X33" t="n">
-        <v>90.63283184379134</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.54254241761822</v>
+        <v>90.54254241761828</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.69182682225116</v>
+        <v>64.69182682225122</v>
       </c>
       <c r="C34" t="n">
-        <v>52.1066677389417</v>
+        <v>52.10666773894175</v>
       </c>
       <c r="D34" t="n">
-        <v>33.47531965852622</v>
+        <v>33.47531965852627</v>
       </c>
       <c r="E34" t="n">
-        <v>31.29380928688303</v>
+        <v>31.29380928688309</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324511</v>
+        <v>30.28089466324516</v>
       </c>
       <c r="G34" t="n">
-        <v>51.59934092989544</v>
+        <v>51.5993409298955</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173632</v>
+        <v>35.96017917173638</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405338396</v>
+        <v>2.674752405338452</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465969434</v>
+        <v>5.881918465969491</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785382</v>
+        <v>87.06647306785388</v>
       </c>
       <c r="T34" t="n">
         <v>107.4581816833929</v>
@@ -3250,7 +3250,7 @@
         <v>171.3828449769049</v>
       </c>
       <c r="X34" t="n">
-        <v>110.569502029351</v>
+        <v>110.5695020293511</v>
       </c>
       <c r="Y34" t="n">
         <v>103.4444999924087</v>
@@ -3266,22 +3266,22 @@
         <v>162.7763536111306</v>
       </c>
       <c r="C35" t="n">
-        <v>145.3154037186575</v>
+        <v>145.3154037186576</v>
       </c>
       <c r="D35" t="n">
-        <v>134.7255535683329</v>
+        <v>134.725553568333</v>
       </c>
       <c r="E35" t="n">
         <v>161.9728820199118</v>
       </c>
       <c r="F35" t="n">
-        <v>186.9185576893614</v>
+        <v>186.9185576893615</v>
       </c>
       <c r="G35" t="n">
         <v>192.5552781808661</v>
       </c>
       <c r="H35" t="n">
-        <v>90.94452067246442</v>
+        <v>90.94452067246448</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.16496715293297</v>
+        <v>31.16496715293303</v>
       </c>
       <c r="V35" t="n">
         <v>107.7947704177849</v>
       </c>
       <c r="W35" t="n">
-        <v>129.283480665063</v>
+        <v>129.2834806650631</v>
       </c>
       <c r="X35" t="n">
-        <v>149.773612626119</v>
+        <v>149.7736126261191</v>
       </c>
       <c r="Y35" t="n">
         <v>166.2804506037036</v>
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>64.71518226179916</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>135.850750924965</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>52.99705278587241</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>5.885685723477065</v>
+        <v>5.885685723477122</v>
       </c>
       <c r="V36" t="n">
-        <v>228.8136461483558</v>
+        <v>12.84309909707531</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>31.73749510856965</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>62.48612903758679</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>15.77593622112031</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.71019281646672</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.640846990728984</v>
+        <v>2.640846990729041</v>
       </c>
       <c r="U37" t="n">
-        <v>66.29327848220211</v>
+        <v>66.29327848220217</v>
       </c>
       <c r="V37" t="n">
-        <v>32.18015527147799</v>
+        <v>32.18015527147804</v>
       </c>
       <c r="W37" t="n">
-        <v>66.56551028424099</v>
+        <v>66.56551028424104</v>
       </c>
       <c r="X37" t="n">
-        <v>5.752167336687137</v>
+        <v>5.752167336687194</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.7763536111306</v>
+        <v>162.7763536111307</v>
       </c>
       <c r="C38" t="n">
-        <v>145.3154037186576</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D38" t="n">
-        <v>134.725553568333</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E38" t="n">
-        <v>161.9728820199118</v>
+        <v>161.9728820199119</v>
       </c>
       <c r="F38" t="n">
-        <v>186.9185576893615</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G38" t="n">
-        <v>192.5552781808661</v>
+        <v>192.5552781808662</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246448</v>
+        <v>90.94452067246456</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293302</v>
+        <v>31.16496715293311</v>
       </c>
       <c r="V38" t="n">
-        <v>107.7947704177849</v>
+        <v>107.794770417785</v>
       </c>
       <c r="W38" t="n">
         <v>129.2834806650631</v>
       </c>
       <c r="X38" t="n">
-        <v>149.7736126261191</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.2804506037036</v>
+        <v>166.2804506037037</v>
       </c>
     </row>
     <row r="39">
@@ -3582,19 +3582,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>51.71085814111234</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723477208</v>
       </c>
       <c r="V39" t="n">
-        <v>12.84309909707531</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>31.73749510856965</v>
+        <v>85.80393769999959</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.48612903758676</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.640846990729041</v>
+        <v>2.640846990729126</v>
       </c>
       <c r="U40" t="n">
-        <v>66.29327848220217</v>
+        <v>66.29327848220225</v>
       </c>
       <c r="V40" t="n">
-        <v>32.18015527147804</v>
+        <v>94.66628430906449</v>
       </c>
       <c r="W40" t="n">
-        <v>66.56551028424104</v>
+        <v>66.56551028424113</v>
       </c>
       <c r="X40" t="n">
-        <v>5.752167336687194</v>
+        <v>5.752167336687279</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.7763536111306</v>
+        <v>162.7763536111307</v>
       </c>
       <c r="C41" t="n">
-        <v>145.3154037186576</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D41" t="n">
-        <v>134.725553568333</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E41" t="n">
-        <v>161.9728820199118</v>
+        <v>161.9728820199119</v>
       </c>
       <c r="F41" t="n">
-        <v>186.9185576893615</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G41" t="n">
-        <v>192.5552781808661</v>
+        <v>192.5552781808662</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246449</v>
+        <v>90.94452067246458</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293302</v>
+        <v>31.16496715293311</v>
       </c>
       <c r="V41" t="n">
-        <v>107.7947704177849</v>
+        <v>107.794770417785</v>
       </c>
       <c r="W41" t="n">
         <v>129.2834806650631</v>
       </c>
       <c r="X41" t="n">
-        <v>149.7736126261191</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.2804506037036</v>
+        <v>166.2804506037037</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>123.9494935290734</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3825,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S42" t="n">
         <v>143.9556929504599</v>
@@ -3873,13 +3873,13 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723477208</v>
       </c>
       <c r="V42" t="n">
-        <v>12.84309909707531</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>31.73749510856965</v>
+        <v>59.43163506485168</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.640846990729041</v>
+        <v>2.640846990729126</v>
       </c>
       <c r="U43" t="n">
-        <v>66.29327848220217</v>
+        <v>128.7794075197886</v>
       </c>
       <c r="V43" t="n">
-        <v>32.18015527147804</v>
+        <v>32.18015527147813</v>
       </c>
       <c r="W43" t="n">
-        <v>66.56551028424104</v>
+        <v>66.56551028424113</v>
       </c>
       <c r="X43" t="n">
-        <v>68.23829637427396</v>
+        <v>5.752167336687279</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7763536111306</v>
+        <v>162.7763536111307</v>
       </c>
       <c r="C44" t="n">
-        <v>145.3154037186576</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D44" t="n">
-        <v>134.725553568333</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E44" t="n">
-        <v>161.9728820199118</v>
+        <v>161.9728820199119</v>
       </c>
       <c r="F44" t="n">
-        <v>186.9185576893615</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G44" t="n">
-        <v>192.5552781808661</v>
+        <v>192.5552781808662</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246448</v>
+        <v>90.94452067246456</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293302</v>
+        <v>31.16496715293311</v>
       </c>
       <c r="V44" t="n">
-        <v>107.7947704177849</v>
+        <v>107.794770417785</v>
       </c>
       <c r="W44" t="n">
         <v>129.2834806650631</v>
       </c>
       <c r="X44" t="n">
-        <v>149.7736126261191</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037036</v>
+        <v>166.2804506037037</v>
       </c>
     </row>
     <row r="45">
@@ -4056,25 +4056,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>59.32662163556726</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H45" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723477208</v>
       </c>
       <c r="V45" t="n">
-        <v>12.84309909707531</v>
+        <v>12.8430990970754</v>
       </c>
       <c r="W45" t="n">
-        <v>31.73749510856965</v>
+        <v>36.44197739267887</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.48612903758634</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>62.48612903758674</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.640846990729041</v>
+        <v>2.640846990729126</v>
       </c>
       <c r="U46" t="n">
-        <v>66.29327848220217</v>
+        <v>66.29327848220225</v>
       </c>
       <c r="V46" t="n">
-        <v>32.18015527147804</v>
+        <v>32.18015527147813</v>
       </c>
       <c r="W46" t="n">
-        <v>66.56551028424104</v>
+        <v>66.56551028424113</v>
       </c>
       <c r="X46" t="n">
-        <v>5.752167336687194</v>
+        <v>5.752167336687279</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>572.643210071457</v>
+        <v>855.4092032087742</v>
       </c>
       <c r="C11" t="n">
-        <v>572.643210071457</v>
+        <v>615.5257930334005</v>
       </c>
       <c r="D11" t="n">
-        <v>343.4566182297447</v>
+        <v>386.3392011916881</v>
       </c>
       <c r="E11" t="n">
-        <v>316.1276465702996</v>
+        <v>213.4905177739343</v>
       </c>
       <c r="F11" t="n">
-        <v>316.1276465702996</v>
+        <v>213.4905177739343</v>
       </c>
       <c r="G11" t="n">
-        <v>28.52719148360425</v>
+        <v>213.4905177739343</v>
       </c>
       <c r="H11" t="n">
         <v>28.52719148360425</v>
@@ -5039,19 +5039,19 @@
         <v>28.52719148360425</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006852</v>
+        <v>83.71911784006807</v>
       </c>
       <c r="K11" t="n">
-        <v>217.1760266634147</v>
+        <v>217.1760266634146</v>
       </c>
       <c r="L11" t="n">
-        <v>419.642884983842</v>
+        <v>419.6428849838418</v>
       </c>
       <c r="M11" t="n">
-        <v>676.5957134965347</v>
+        <v>676.5957134965345</v>
       </c>
       <c r="N11" t="n">
-        <v>942.3201157893074</v>
+        <v>942.3201157893071</v>
       </c>
       <c r="O11" t="n">
         <v>1179.900872569999</v>
@@ -5075,16 +5075,16 @@
         <v>1301.779635283349</v>
       </c>
       <c r="V11" t="n">
-        <v>1301.779635283349</v>
+        <v>1099.795854704816</v>
       </c>
       <c r="W11" t="n">
-        <v>1078.090086778273</v>
+        <v>1099.795854704816</v>
       </c>
       <c r="X11" t="n">
-        <v>833.7034352822307</v>
+        <v>855.4092032087742</v>
       </c>
       <c r="Y11" t="n">
-        <v>572.643210071457</v>
+        <v>855.4092032087742</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>278.5931970766886</v>
+        <v>555.0916627779146</v>
       </c>
       <c r="C12" t="n">
-        <v>104.1401677955616</v>
+        <v>509.7177402618257</v>
       </c>
       <c r="D12" t="n">
-        <v>84.28486489934838</v>
+        <v>489.8624373656124</v>
       </c>
       <c r="E12" t="n">
-        <v>54.12651665893098</v>
+        <v>330.6249823601569</v>
       </c>
       <c r="F12" t="n">
-        <v>36.67106545085405</v>
+        <v>184.0904243870419</v>
       </c>
       <c r="G12" t="n">
-        <v>28.52719148360425</v>
+        <v>175.9465504197921</v>
       </c>
       <c r="H12" t="n">
-        <v>28.52719148360425</v>
+        <v>77.14002007554097</v>
       </c>
       <c r="I12" t="n">
         <v>28.52719148360425</v>
@@ -5148,22 +5148,22 @@
         <v>1210.282618467478</v>
       </c>
       <c r="T12" t="n">
-        <v>1063.617788922416</v>
+        <v>1081.958041093566</v>
       </c>
       <c r="U12" t="n">
-        <v>835.4933709670353</v>
+        <v>982.9127299032235</v>
       </c>
       <c r="V12" t="n">
-        <v>729.4203695003307</v>
+        <v>876.8397284365188</v>
       </c>
       <c r="W12" t="n">
-        <v>604.2621195371672</v>
+        <v>751.6814784733552</v>
       </c>
       <c r="X12" t="n">
-        <v>525.4897260966725</v>
+        <v>672.9090850328605</v>
       </c>
       <c r="Y12" t="n">
-        <v>317.7294273317185</v>
+        <v>594.2278930329446</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.958744436148</v>
+        <v>188.9587444361483</v>
       </c>
       <c r="C13" t="n">
-        <v>149.1016682732792</v>
+        <v>149.1016682732794</v>
       </c>
       <c r="D13" t="n">
-        <v>128.0641356259816</v>
+        <v>128.0641356259818</v>
       </c>
       <c r="E13" t="n">
-        <v>109.2301488086266</v>
+        <v>109.2301488086267</v>
       </c>
       <c r="F13" t="n">
-        <v>91.41930807575436</v>
+        <v>91.41930807575444</v>
       </c>
       <c r="G13" t="n">
-        <v>52.0746832351545</v>
+        <v>52.07468323515454</v>
       </c>
       <c r="H13" t="n">
         <v>28.52719148360425</v>
       </c>
       <c r="I13" t="n">
-        <v>38.4008673166438</v>
+        <v>38.40086731664375</v>
       </c>
       <c r="J13" t="n">
-        <v>126.7810270579759</v>
+        <v>97.97564978563793</v>
       </c>
       <c r="K13" t="n">
-        <v>269.5141466318129</v>
+        <v>114.1983368190611</v>
       </c>
       <c r="L13" t="n">
-        <v>446.6898310015574</v>
+        <v>291.3740211888056</v>
       </c>
       <c r="M13" t="n">
-        <v>629.8779508176851</v>
+        <v>474.5621410049333</v>
       </c>
       <c r="N13" t="n">
-        <v>819.5759278172044</v>
+        <v>664.2601180044525</v>
       </c>
       <c r="O13" t="n">
-        <v>857.6267634080016</v>
+        <v>828.8213861356635</v>
       </c>
       <c r="P13" t="n">
-        <v>997.6342881468372</v>
+        <v>968.8289108744991</v>
       </c>
       <c r="Q13" t="n">
-        <v>1042.397671093595</v>
+        <v>1049.096252526611</v>
       </c>
       <c r="R13" t="n">
-        <v>1049.09625252661</v>
+        <v>1049.096252526611</v>
       </c>
       <c r="S13" t="n">
-        <v>973.9262416880727</v>
+        <v>973.9262416880733</v>
       </c>
       <c r="T13" t="n">
-        <v>878.1585453792936</v>
+        <v>878.1585453792942</v>
       </c>
       <c r="U13" t="n">
-        <v>718.0954637255921</v>
+        <v>718.0954637255927</v>
       </c>
       <c r="V13" t="n">
-        <v>592.4900822847434</v>
+        <v>592.4900822847438</v>
       </c>
       <c r="W13" t="n">
-        <v>432.1520190128209</v>
+        <v>432.1520190128213</v>
       </c>
       <c r="X13" t="n">
-        <v>333.2415748798416</v>
+        <v>333.241574879842</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.5281025013496</v>
+        <v>241.5281025013499</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>854.7435904280754</v>
+        <v>837.9178547702427</v>
       </c>
       <c r="C14" t="n">
-        <v>854.7435904280754</v>
+        <v>598.034444594869</v>
       </c>
       <c r="D14" t="n">
-        <v>854.7435904280754</v>
+        <v>598.034444594869</v>
       </c>
       <c r="E14" t="n">
         <v>598.034444594869</v>
       </c>
       <c r="F14" t="n">
-        <v>316.1276465702995</v>
+        <v>316.1276465702996</v>
       </c>
       <c r="G14" t="n">
         <v>28.52719148360425</v>
@@ -5279,16 +5279,16 @@
         <v>83.71911784006807</v>
       </c>
       <c r="K14" t="n">
-        <v>217.1760266634146</v>
+        <v>217.1760266634142</v>
       </c>
       <c r="L14" t="n">
-        <v>419.6428849838421</v>
+        <v>419.6428849838413</v>
       </c>
       <c r="M14" t="n">
-        <v>676.5957134965348</v>
+        <v>676.5957134965341</v>
       </c>
       <c r="N14" t="n">
-        <v>942.3201157893075</v>
+        <v>942.3201157893067</v>
       </c>
       <c r="O14" t="n">
         <v>1179.900872569999</v>
@@ -5306,22 +5306,22 @@
         <v>1426.359574180212</v>
       </c>
       <c r="T14" t="n">
-        <v>1426.359574180212</v>
+        <v>1342.425801877037</v>
       </c>
       <c r="U14" t="n">
-        <v>1426.359574180212</v>
+        <v>1217.845862980173</v>
       </c>
       <c r="V14" t="n">
-        <v>1426.359574180212</v>
+        <v>1061.607403275319</v>
       </c>
       <c r="W14" t="n">
-        <v>1426.359574180212</v>
+        <v>837.9178547702427</v>
       </c>
       <c r="X14" t="n">
-        <v>1373.324548937933</v>
+        <v>837.9178547702427</v>
       </c>
       <c r="Y14" t="n">
-        <v>1112.264323727159</v>
+        <v>837.9178547702427</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>278.5931970766889</v>
+        <v>149.5140903116507</v>
       </c>
       <c r="C15" t="n">
-        <v>233.2192745605999</v>
+        <v>104.1401677955617</v>
       </c>
       <c r="D15" t="n">
-        <v>84.28486489934861</v>
+        <v>84.28486489934852</v>
       </c>
       <c r="E15" t="n">
-        <v>54.12651665893114</v>
+        <v>54.12651665893108</v>
       </c>
       <c r="F15" t="n">
-        <v>36.67106545085413</v>
+        <v>36.6710654508541</v>
       </c>
       <c r="G15" t="n">
         <v>28.52719148360425</v>
@@ -5382,25 +5382,25 @@
         <v>1226.61330256149</v>
       </c>
       <c r="S15" t="n">
-        <v>1081.20351170244</v>
+        <v>1210.282618467478</v>
       </c>
       <c r="T15" t="n">
-        <v>1014.173696043804</v>
+        <v>1143.252802808842</v>
       </c>
       <c r="U15" t="n">
-        <v>915.1283848534613</v>
+        <v>915.1283848534614</v>
       </c>
       <c r="V15" t="n">
-        <v>809.0553833867566</v>
+        <v>679.9762766217186</v>
       </c>
       <c r="W15" t="n">
-        <v>604.2621195371675</v>
+        <v>554.818026658555</v>
       </c>
       <c r="X15" t="n">
-        <v>525.4897260966727</v>
+        <v>476.0456332180603</v>
       </c>
       <c r="Y15" t="n">
-        <v>317.7294273317189</v>
+        <v>268.2853344531064</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.9587444361485</v>
+        <v>188.9587444361483</v>
       </c>
       <c r="C16" t="n">
-        <v>149.1016682732796</v>
+        <v>149.1016682732794</v>
       </c>
       <c r="D16" t="n">
-        <v>128.0641356259819</v>
+        <v>128.0641356259818</v>
       </c>
       <c r="E16" t="n">
-        <v>109.2301488086268</v>
+        <v>109.2301488086267</v>
       </c>
       <c r="F16" t="n">
-        <v>91.4193080757545</v>
+        <v>91.41930807575444</v>
       </c>
       <c r="G16" t="n">
-        <v>52.07468323515457</v>
+        <v>52.07468323515454</v>
       </c>
       <c r="H16" t="n">
         <v>28.52719148360425</v>
       </c>
       <c r="I16" t="n">
-        <v>38.40086731664373</v>
+        <v>38.40086731664375</v>
       </c>
       <c r="J16" t="n">
         <v>126.7810270579758</v>
       </c>
       <c r="K16" t="n">
-        <v>269.5141466318127</v>
+        <v>143.003714091399</v>
       </c>
       <c r="L16" t="n">
-        <v>371.6413628409179</v>
+        <v>320.1793984611435</v>
       </c>
       <c r="M16" t="n">
-        <v>554.8294826570456</v>
+        <v>503.3675182772712</v>
       </c>
       <c r="N16" t="n">
-        <v>744.5274596565647</v>
+        <v>693.0654952767904</v>
       </c>
       <c r="O16" t="n">
-        <v>909.0887277877757</v>
+        <v>857.6267634080015</v>
       </c>
       <c r="P16" t="n">
-        <v>1049.096252526611</v>
+        <v>962.1303294414843</v>
       </c>
       <c r="Q16" t="n">
-        <v>1049.096252526611</v>
+        <v>1042.397671093596</v>
       </c>
       <c r="R16" t="n">
         <v>1049.096252526611</v>
       </c>
       <c r="S16" t="n">
-        <v>973.9262416880737</v>
+        <v>973.9262416880733</v>
       </c>
       <c r="T16" t="n">
-        <v>878.1585453792945</v>
+        <v>878.1585453792942</v>
       </c>
       <c r="U16" t="n">
-        <v>718.095463725593</v>
+        <v>718.0954637255927</v>
       </c>
       <c r="V16" t="n">
-        <v>592.4900822847442</v>
+        <v>592.4900822847438</v>
       </c>
       <c r="W16" t="n">
-        <v>432.1520190128215</v>
+        <v>432.1520190128213</v>
       </c>
       <c r="X16" t="n">
-        <v>333.2415748798422</v>
+        <v>333.241574879842</v>
       </c>
       <c r="Y16" t="n">
-        <v>241.5281025013501</v>
+        <v>241.5281025013499</v>
       </c>
     </row>
     <row r="17">
@@ -5489,64 +5489,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>810.9578074646656</v>
+        <v>810.9578074646658</v>
       </c>
       <c r="C17" t="n">
-        <v>687.3775825010964</v>
+        <v>687.3775825010968</v>
       </c>
       <c r="D17" t="n">
-        <v>574.4941758711883</v>
+        <v>574.4941758711885</v>
       </c>
       <c r="E17" t="n">
-        <v>434.0882152497865</v>
+        <v>434.0882152497866</v>
       </c>
       <c r="F17" t="n">
         <v>268.4846024370213</v>
       </c>
       <c r="G17" t="n">
-        <v>97.18733256213</v>
+        <v>97.18733256213011</v>
       </c>
       <c r="H17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="I17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="J17" t="n">
-        <v>83.71911784006781</v>
+        <v>83.71911784006807</v>
       </c>
       <c r="K17" t="n">
-        <v>217.176026663414</v>
+        <v>217.1760266634142</v>
       </c>
       <c r="L17" t="n">
-        <v>419.6428849838412</v>
+        <v>419.6428849838413</v>
       </c>
       <c r="M17" t="n">
-        <v>676.595713496534</v>
+        <v>676.5957134965341</v>
       </c>
       <c r="N17" t="n">
-        <v>942.3201157893066</v>
+        <v>942.3201157893067</v>
       </c>
       <c r="O17" t="n">
-        <v>1179.900872569998</v>
+        <v>1179.900872569999</v>
       </c>
       <c r="P17" t="n">
-        <v>1348.169550998292</v>
+        <v>1348.169550998293</v>
       </c>
       <c r="Q17" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="R17" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="S17" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="T17" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="U17" t="n">
-        <v>1418.082820495152</v>
+        <v>1418.082820495153</v>
       </c>
       <c r="V17" t="n">
         <v>1332.402225128424</v>
@@ -5555,10 +5555,10 @@
         <v>1225.015861835152</v>
       </c>
       <c r="X17" t="n">
-        <v>1096.932395550914</v>
+        <v>1096.932395550915</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.175355551945</v>
+        <v>952.1753555519452</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>350.399579700919</v>
+        <v>657.686643404553</v>
       </c>
       <c r="C18" t="n">
-        <v>175.9465504197921</v>
+        <v>483.233614123426</v>
       </c>
       <c r="D18" t="n">
-        <v>175.9465504197921</v>
+        <v>334.2992044621748</v>
       </c>
       <c r="E18" t="n">
-        <v>175.9465504197921</v>
+        <v>175.0617494567193</v>
       </c>
       <c r="F18" t="n">
-        <v>175.9465504197921</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="G18" t="n">
-        <v>175.9465504197921</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="H18" t="n">
-        <v>77.14002007554095</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="I18" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="J18" t="n">
-        <v>42.58127776197358</v>
+        <v>42.5812777619736</v>
       </c>
       <c r="K18" t="n">
         <v>144.7567744385589</v>
@@ -5616,28 +5616,28 @@
         <v>1226.61330256149</v>
       </c>
       <c r="R18" t="n">
-        <v>1173.080926010104</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="S18" t="n">
-        <v>1027.671135151053</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="T18" t="n">
-        <v>1027.671135151053</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="U18" t="n">
-        <v>799.5467171956726</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="V18" t="n">
-        <v>772.8522734491887</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="W18" t="n">
-        <v>518.6149167209871</v>
+        <v>1217.758237810131</v>
       </c>
       <c r="X18" t="n">
-        <v>518.6149167209871</v>
+        <v>1033.662279189575</v>
       </c>
       <c r="Y18" t="n">
-        <v>518.6149167209871</v>
+        <v>825.9019804246211</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.5493061934105</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="C19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="D19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="E19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="F19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="G19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="H19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="I19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="J19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="K19" t="n">
-        <v>44.7498785170274</v>
+        <v>44.74987851702741</v>
       </c>
       <c r="L19" t="n">
-        <v>95.41513034635813</v>
+        <v>95.41513034635814</v>
       </c>
       <c r="M19" t="n">
         <v>152.092817622072</v>
@@ -5692,31 +5692,31 @@
         <v>266.8282898703964</v>
       </c>
       <c r="Q19" t="n">
-        <v>219.6462769244704</v>
+        <v>266.8282898703964</v>
       </c>
       <c r="R19" t="n">
-        <v>219.6462769244704</v>
+        <v>266.8282898703964</v>
       </c>
       <c r="S19" t="n">
-        <v>219.6462769244704</v>
+        <v>266.8282898703964</v>
       </c>
       <c r="T19" t="n">
-        <v>219.6462769244704</v>
+        <v>266.8282898703964</v>
       </c>
       <c r="U19" t="n">
-        <v>175.8863804825733</v>
+        <v>81.86426577276721</v>
       </c>
       <c r="V19" t="n">
-        <v>166.5841842535287</v>
+        <v>72.5620695437226</v>
       </c>
       <c r="W19" t="n">
-        <v>122.5493061934105</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="X19" t="n">
-        <v>122.5493061934105</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="Y19" t="n">
-        <v>122.5493061934105</v>
+        <v>28.52719148360425</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.9578074646655</v>
+        <v>810.957807464666</v>
       </c>
       <c r="C20" t="n">
-        <v>687.3775825010961</v>
+        <v>687.3775825010965</v>
       </c>
       <c r="D20" t="n">
-        <v>574.4941758711878</v>
+        <v>574.4941758711883</v>
       </c>
       <c r="E20" t="n">
-        <v>434.0882152497859</v>
+        <v>434.0882152497863</v>
       </c>
       <c r="F20" t="n">
-        <v>268.4846024370206</v>
+        <v>268.4846024370211</v>
       </c>
       <c r="G20" t="n">
-        <v>97.18733256213005</v>
+        <v>97.18733256213007</v>
       </c>
       <c r="H20" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="I20" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="J20" t="n">
-        <v>83.71911784006784</v>
+        <v>83.71911784006782</v>
       </c>
       <c r="K20" t="n">
-        <v>217.176026663414</v>
+        <v>217.1760266634141</v>
       </c>
       <c r="L20" t="n">
-        <v>419.642884983841</v>
+        <v>419.6428849838413</v>
       </c>
       <c r="M20" t="n">
-        <v>676.5957134965337</v>
+        <v>676.5957134965341</v>
       </c>
       <c r="N20" t="n">
-        <v>942.3201157893062</v>
+        <v>942.3201157893068</v>
       </c>
       <c r="O20" t="n">
         <v>1179.900872569998</v>
@@ -5771,16 +5771,16 @@
         <v>1348.169550998292</v>
       </c>
       <c r="Q20" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="R20" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="S20" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="T20" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="U20" t="n">
         <v>1418.082820495152</v>
@@ -5792,10 +5792,10 @@
         <v>1225.015861835152</v>
       </c>
       <c r="X20" t="n">
-        <v>1096.932395550914</v>
+        <v>1096.932395550915</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.175355551945</v>
+        <v>952.1753555519456</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>756.4931737488041</v>
+        <v>608.6384987864462</v>
       </c>
       <c r="C21" t="n">
-        <v>582.0401444676771</v>
+        <v>608.6384987864462</v>
       </c>
       <c r="D21" t="n">
-        <v>433.1057348064259</v>
+        <v>459.704089125195</v>
       </c>
       <c r="E21" t="n">
-        <v>273.8682798009704</v>
+        <v>459.704089125195</v>
       </c>
       <c r="F21" t="n">
-        <v>127.3337218278553</v>
+        <v>313.16953115208</v>
       </c>
       <c r="G21" t="n">
-        <v>127.3337218278553</v>
+        <v>175.9465504197921</v>
       </c>
       <c r="H21" t="n">
-        <v>28.52719148360422</v>
+        <v>77.14002007554096</v>
       </c>
       <c r="I21" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="J21" t="n">
-        <v>42.58127776197358</v>
+        <v>42.5812777619736</v>
       </c>
       <c r="K21" t="n">
         <v>144.7567744385589</v>
@@ -5859,22 +5859,22 @@
         <v>1226.61330256149</v>
       </c>
       <c r="T21" t="n">
-        <v>1201.324156661077</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="U21" t="n">
-        <v>973.1997387056963</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="V21" t="n">
-        <v>973.1997387056963</v>
+        <v>991.4611943297475</v>
       </c>
       <c r="W21" t="n">
-        <v>964.3446739543369</v>
+        <v>982.6061295783882</v>
       </c>
       <c r="X21" t="n">
-        <v>756.4931737488041</v>
+        <v>982.6061295783882</v>
       </c>
       <c r="Y21" t="n">
-        <v>756.4931737488041</v>
+        <v>776.8538358065143</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.52719148360422</v>
+        <v>169.7313191393363</v>
       </c>
       <c r="C22" t="n">
-        <v>28.52719148360422</v>
+        <v>169.7313191393363</v>
       </c>
       <c r="D22" t="n">
-        <v>28.52719148360422</v>
+        <v>169.7313191393363</v>
       </c>
       <c r="E22" t="n">
-        <v>28.52719148360422</v>
+        <v>169.7313191393363</v>
       </c>
       <c r="F22" t="n">
-        <v>28.52719148360422</v>
+        <v>169.7313191393363</v>
       </c>
       <c r="G22" t="n">
-        <v>28.52719148360422</v>
+        <v>169.7313191393363</v>
       </c>
       <c r="H22" t="n">
-        <v>28.52719148360422</v>
+        <v>67.43166327126031</v>
       </c>
       <c r="I22" t="n">
-        <v>28.52719148360422</v>
+        <v>67.43166327126031</v>
       </c>
       <c r="J22" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="K22" t="n">
-        <v>44.74987851702738</v>
+        <v>44.7498785170274</v>
       </c>
       <c r="L22" t="n">
-        <v>95.41513034635811</v>
+        <v>95.41513034635813</v>
       </c>
       <c r="M22" t="n">
         <v>152.092817622072</v>
@@ -5941,19 +5941,19 @@
         <v>266.8282898703964</v>
       </c>
       <c r="U22" t="n">
-        <v>81.86426577276713</v>
+        <v>223.0683934284992</v>
       </c>
       <c r="V22" t="n">
-        <v>72.56206954372254</v>
+        <v>213.7661971994546</v>
       </c>
       <c r="W22" t="n">
-        <v>28.52719148360422</v>
+        <v>169.7313191393363</v>
       </c>
       <c r="X22" t="n">
-        <v>28.52719148360422</v>
+        <v>169.7313191393363</v>
       </c>
       <c r="Y22" t="n">
-        <v>28.52719148360422</v>
+        <v>169.7313191393363</v>
       </c>
     </row>
     <row r="23">
@@ -5963,61 +5963,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>810.9578074646656</v>
+        <v>810.9578074646653</v>
       </c>
       <c r="C23" t="n">
-        <v>687.3775825010965</v>
+        <v>687.3775825010958</v>
       </c>
       <c r="D23" t="n">
-        <v>574.4941758711883</v>
+        <v>574.4941758711876</v>
       </c>
       <c r="E23" t="n">
-        <v>434.0882152497863</v>
+        <v>434.0882152497857</v>
       </c>
       <c r="F23" t="n">
-        <v>268.4846024370211</v>
+        <v>268.4846024370204</v>
       </c>
       <c r="G23" t="n">
-        <v>97.18733256213007</v>
+        <v>97.18733256213005</v>
       </c>
       <c r="H23" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I23" t="n">
-        <v>28.5271914836046</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J23" t="n">
-        <v>83.71911784006818</v>
+        <v>83.71911784006784</v>
       </c>
       <c r="K23" t="n">
-        <v>217.1760266634144</v>
+        <v>217.176026663414</v>
       </c>
       <c r="L23" t="n">
-        <v>419.6428849838416</v>
+        <v>419.642884983841</v>
       </c>
       <c r="M23" t="n">
-        <v>676.5957134965345</v>
+        <v>676.5957134965336</v>
       </c>
       <c r="N23" t="n">
-        <v>942.320115789307</v>
+        <v>942.3201157893062</v>
       </c>
       <c r="O23" t="n">
-        <v>1179.900872569999</v>
+        <v>1179.900872569998</v>
       </c>
       <c r="P23" t="n">
-        <v>1348.169550998292</v>
+        <v>1348.169550998291</v>
       </c>
       <c r="Q23" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R23" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S23" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T23" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="U23" t="n">
         <v>1418.082820495152</v>
@@ -6032,7 +6032,7 @@
         <v>1096.932395550914</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.1753555519449</v>
+        <v>952.1753555519448</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>587.9441415025216</v>
+        <v>633.931101819576</v>
       </c>
       <c r="C24" t="n">
-        <v>413.4911122213945</v>
+        <v>459.4780725384491</v>
       </c>
       <c r="D24" t="n">
-        <v>264.5567025601433</v>
+        <v>310.5436628771978</v>
       </c>
       <c r="E24" t="n">
-        <v>264.5567025601433</v>
+        <v>151.3062078717423</v>
       </c>
       <c r="F24" t="n">
-        <v>264.5567025601433</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G24" t="n">
-        <v>127.3337218278553</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H24" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I24" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J24" t="n">
-        <v>42.5812777619736</v>
+        <v>42.58127776197357</v>
       </c>
       <c r="K24" t="n">
         <v>144.7567744385589</v>
@@ -6096,22 +6096,22 @@
         <v>1226.61330256149</v>
       </c>
       <c r="T24" t="n">
-        <v>1030.504380137816</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="U24" t="n">
-        <v>1030.504380137816</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="V24" t="n">
-        <v>795.3522719060738</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="W24" t="n">
-        <v>786.4972071547145</v>
+        <v>1217.758237810131</v>
       </c>
       <c r="X24" t="n">
-        <v>756.1594785225896</v>
+        <v>1009.906737604598</v>
       </c>
       <c r="Y24" t="n">
-        <v>756.1594785225896</v>
+        <v>802.1464388396441</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.48680214372456</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="C25" t="n">
-        <v>47.48680214372456</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="D25" t="n">
-        <v>47.48680214372456</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="E25" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F25" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G25" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H25" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I25" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J25" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K25" t="n">
-        <v>44.7498785170274</v>
+        <v>44.74987851702738</v>
       </c>
       <c r="L25" t="n">
-        <v>95.41513034635813</v>
+        <v>95.41513034635811</v>
       </c>
       <c r="M25" t="n">
         <v>152.092817622072</v>
@@ -6169,28 +6169,28 @@
         <v>266.8282898703964</v>
       </c>
       <c r="R25" t="n">
-        <v>144.5837728747847</v>
+        <v>266.8282898703964</v>
       </c>
       <c r="S25" t="n">
-        <v>144.5837728747847</v>
+        <v>266.8282898703964</v>
       </c>
       <c r="T25" t="n">
-        <v>144.5837728747847</v>
+        <v>125.6241622146644</v>
       </c>
       <c r="U25" t="n">
-        <v>100.8238764328875</v>
+        <v>81.86426577276713</v>
       </c>
       <c r="V25" t="n">
-        <v>91.52168020384288</v>
+        <v>72.56206954372254</v>
       </c>
       <c r="W25" t="n">
-        <v>47.48680214372456</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="X25" t="n">
-        <v>47.48680214372456</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.48680214372456</v>
+        <v>28.52719148360422</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>1619.642009607694</v>
       </c>
       <c r="C26" t="n">
-        <v>1366.982677879087</v>
+        <v>1366.982677879086</v>
       </c>
       <c r="D26" t="n">
-        <v>1125.020164484141</v>
+        <v>1125.02016448414</v>
       </c>
       <c r="E26" t="n">
-        <v>855.5350970977011</v>
+        <v>855.5350970977004</v>
       </c>
       <c r="F26" t="n">
-        <v>560.8523775198978</v>
+        <v>560.8523775198973</v>
       </c>
       <c r="G26" t="n">
         <v>260.4760008799682</v>
@@ -6221,7 +6221,7 @@
         <v>62.73675303640425</v>
       </c>
       <c r="I26" t="n">
-        <v>74.83913835551121</v>
+        <v>74.83913835551122</v>
       </c>
       <c r="J26" t="n">
         <v>244.0198165380641</v>
@@ -6230,46 +6230,46 @@
         <v>491.4654771874996</v>
       </c>
       <c r="L26" t="n">
-        <v>807.9210873340162</v>
+        <v>1109.70212945793</v>
       </c>
       <c r="M26" t="n">
-        <v>1064.873915846709</v>
+        <v>1791.997480565361</v>
       </c>
       <c r="N26" t="n">
-        <v>1541.196989818591</v>
+        <v>2171.710634684223</v>
       </c>
       <c r="O26" t="n">
-        <v>2269.75867787549</v>
+        <v>2523.280143291005</v>
       </c>
       <c r="P26" t="n">
-        <v>2870.596829219641</v>
+        <v>2805.537573545388</v>
       </c>
       <c r="Q26" t="n">
-        <v>3062.77560422765</v>
+        <v>2997.716348553397</v>
       </c>
       <c r="R26" t="n">
-        <v>3136.837651820213</v>
+        <v>3136.837651820212</v>
       </c>
       <c r="S26" t="n">
-        <v>3106.228110769879</v>
+        <v>3106.228110769878</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.51841691347</v>
+        <v>3009.518416913469</v>
       </c>
       <c r="U26" t="n">
-        <v>2872.162556463372</v>
+        <v>2872.162556463371</v>
       </c>
       <c r="V26" t="n">
-        <v>2657.402854331605</v>
+        <v>2657.402854331604</v>
       </c>
       <c r="W26" t="n">
-        <v>2420.937384273295</v>
+        <v>2420.937384273294</v>
       </c>
       <c r="X26" t="n">
-        <v>2163.77481122402</v>
+        <v>2163.774811224019</v>
       </c>
       <c r="Y26" t="n">
-        <v>1889.938664460012</v>
+        <v>1889.938664460011</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>247.60325963062</v>
+        <v>247.6032596306199</v>
       </c>
       <c r="C27" t="n">
-        <v>189.4534155612972</v>
+        <v>189.4534155612971</v>
       </c>
       <c r="D27" t="n">
         <v>156.8221911118501</v>
@@ -6291,7 +6291,7 @@
         <v>113.8879213181988</v>
       </c>
       <c r="F27" t="n">
-        <v>83.65654855688797</v>
+        <v>83.65654855688794</v>
       </c>
       <c r="G27" t="n">
         <v>62.73675303640425</v>
@@ -6303,7 +6303,7 @@
         <v>62.73675303640425</v>
       </c>
       <c r="J27" t="n">
-        <v>76.79083931477361</v>
+        <v>76.79083931477359</v>
       </c>
       <c r="K27" t="n">
         <v>178.9663359913589</v>
@@ -6330,25 +6330,25 @@
         <v>1260.82286411429</v>
       </c>
       <c r="S27" t="n">
-        <v>1163.537274901153</v>
+        <v>1231.716258467044</v>
       </c>
       <c r="T27" t="n">
-        <v>967.4283524774791</v>
+        <v>1083.731537689283</v>
       </c>
       <c r="U27" t="n">
-        <v>855.6071197339023</v>
+        <v>855.6071197339022</v>
       </c>
       <c r="V27" t="n">
-        <v>736.7581967139638</v>
+        <v>620.4550115021594</v>
       </c>
       <c r="W27" t="n">
-        <v>598.8240251975664</v>
+        <v>482.520839985762</v>
       </c>
       <c r="X27" t="n">
-        <v>507.2757102038378</v>
+        <v>390.9725249920334</v>
       </c>
       <c r="Y27" t="n">
-        <v>415.8185966506881</v>
+        <v>299.5154114388837</v>
       </c>
     </row>
     <row r="28">
@@ -6370,37 +6370,37 @@
         <v>184.4692451275307</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8824828414246</v>
+        <v>153.8824828414245</v>
       </c>
       <c r="G28" t="n">
         <v>101.7619364475908</v>
       </c>
       <c r="H28" t="n">
-        <v>65.43852314280666</v>
+        <v>65.43852314280663</v>
       </c>
       <c r="I28" t="n">
         <v>62.73675303640425</v>
       </c>
       <c r="J28" t="n">
-        <v>62.73675303640425</v>
+        <v>138.5952320634118</v>
       </c>
       <c r="K28" t="n">
-        <v>207.8401113203169</v>
+        <v>154.817919096835</v>
       </c>
       <c r="L28" t="n">
-        <v>258.5053631496476</v>
+        <v>229.5293031791851</v>
       </c>
       <c r="M28" t="n">
-        <v>605.896366551802</v>
+        <v>576.9203065813394</v>
       </c>
       <c r="N28" t="n">
-        <v>953.1722025130138</v>
+        <v>810.207390716462</v>
       </c>
       <c r="O28" t="n">
-        <v>1105.2117899299</v>
+        <v>1009.669476009483</v>
       </c>
       <c r="P28" t="n">
-        <v>1252.365379809223</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="Q28" t="n">
         <v>1270.811817714895</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1619.642009607695</v>
+        <v>1619.642009607696</v>
       </c>
       <c r="C29" t="n">
         <v>1366.982677879088</v>
@@ -6446,67 +6446,67 @@
         <v>1125.020164484142</v>
       </c>
       <c r="E29" t="n">
-        <v>855.5350970977016</v>
+        <v>855.5350970977022</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198984</v>
+        <v>560.8523775198988</v>
       </c>
       <c r="G29" t="n">
-        <v>260.4760008799681</v>
+        <v>260.4760008799682</v>
       </c>
       <c r="H29" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="I29" t="n">
-        <v>74.8391383555113</v>
+        <v>74.83913835551125</v>
       </c>
       <c r="J29" t="n">
         <v>244.0198165380642</v>
       </c>
       <c r="K29" t="n">
-        <v>620.1586733827223</v>
+        <v>812.3694356329527</v>
       </c>
       <c r="L29" t="n">
-        <v>936.6142835292389</v>
+        <v>1128.825045779469</v>
       </c>
       <c r="M29" t="n">
-        <v>1307.555863868021</v>
+        <v>1499.766626118251</v>
       </c>
       <c r="N29" t="n">
-        <v>1687.269017986883</v>
+        <v>1879.479780237113</v>
       </c>
       <c r="O29" t="n">
-        <v>2415.830706043782</v>
+        <v>2231.049288843894</v>
       </c>
       <c r="P29" t="n">
-        <v>2944.658876812204</v>
+        <v>2718.727479739299</v>
       </c>
       <c r="Q29" t="n">
-        <v>3136.837651820213</v>
+        <v>3062.775604227651</v>
       </c>
       <c r="R29" t="n">
-        <v>3136.837651820213</v>
+        <v>3136.837651820214</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.228110769879</v>
+        <v>3106.22811076988</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.51841691347</v>
+        <v>3009.518416913471</v>
       </c>
       <c r="U29" t="n">
-        <v>2872.162556463372</v>
+        <v>2872.162556463373</v>
       </c>
       <c r="V29" t="n">
-        <v>2657.402854331606</v>
+        <v>2657.402854331607</v>
       </c>
       <c r="W29" t="n">
-        <v>2420.937384273296</v>
+        <v>2420.937384273297</v>
       </c>
       <c r="X29" t="n">
-        <v>2163.77481122402</v>
+        <v>2163.774811224021</v>
       </c>
       <c r="Y29" t="n">
-        <v>1889.938664460013</v>
+        <v>1889.938664460014</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>432.0854284083163</v>
+        <v>315.7822431965114</v>
       </c>
       <c r="C30" t="n">
-        <v>257.6323991271893</v>
+        <v>257.6323991271886</v>
       </c>
       <c r="D30" t="n">
-        <v>156.8221911118499</v>
+        <v>225.0011746777416</v>
       </c>
       <c r="E30" t="n">
-        <v>113.8879213181986</v>
+        <v>182.0669048840903</v>
       </c>
       <c r="F30" t="n">
-        <v>83.65654855688788</v>
+        <v>151.8355321227795</v>
       </c>
       <c r="G30" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="H30" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="I30" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="J30" t="n">
-        <v>76.79083931477361</v>
+        <v>76.79083931477362</v>
       </c>
       <c r="K30" t="n">
-        <v>178.9663359913589</v>
+        <v>178.966335991359</v>
       </c>
       <c r="L30" t="n">
-        <v>362.6764416676408</v>
+        <v>362.6764416676409</v>
       </c>
       <c r="M30" t="n">
-        <v>596.4143381182392</v>
+        <v>596.4143381182394</v>
       </c>
       <c r="N30" t="n">
         <v>850.7472260948148</v>
@@ -6573,19 +6573,19 @@
         <v>1151.910521255175</v>
       </c>
       <c r="U30" t="n">
-        <v>923.7861032997938</v>
+        <v>1040.089288511598</v>
       </c>
       <c r="V30" t="n">
-        <v>804.9371802798554</v>
+        <v>921.2403654916594</v>
       </c>
       <c r="W30" t="n">
-        <v>667.0030087634581</v>
+        <v>783.306193975262</v>
       </c>
       <c r="X30" t="n">
-        <v>575.4546937697296</v>
+        <v>691.7578789815334</v>
       </c>
       <c r="Y30" t="n">
-        <v>483.99758021658</v>
+        <v>483.9975802165795</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.5256054147533</v>
+        <v>302.5256054147538</v>
       </c>
       <c r="C31" t="n">
-        <v>249.8926076986506</v>
+        <v>249.8926076986511</v>
       </c>
       <c r="D31" t="n">
-        <v>216.0791534981192</v>
+        <v>216.0791534981196</v>
       </c>
       <c r="E31" t="n">
-        <v>184.4692451275304</v>
+        <v>184.4692451275307</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8824828414243</v>
+        <v>153.8824828414245</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7619364475906</v>
+        <v>101.7619364475908</v>
       </c>
       <c r="H31" t="n">
-        <v>65.43852314280657</v>
+        <v>65.43852314280666</v>
       </c>
       <c r="I31" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="J31" t="n">
-        <v>138.5952320634119</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="K31" t="n">
-        <v>374.4829996041304</v>
+        <v>184.6357687510334</v>
       </c>
       <c r="L31" t="n">
-        <v>425.1482514334612</v>
+        <v>510.1397269325923</v>
       </c>
       <c r="M31" t="n">
-        <v>578.1416145304777</v>
+        <v>857.5307303347467</v>
       </c>
       <c r="N31" t="n">
-        <v>925.4174504916896</v>
+        <v>920.7182747938522</v>
       </c>
       <c r="O31" t="n">
-        <v>1124.87953578471</v>
+        <v>1234.169111912962</v>
       </c>
       <c r="P31" t="n">
-        <v>1138.376627983132</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="Q31" t="n">
-        <v>1270.811817714894</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="R31" t="n">
-        <v>1264.870485931086</v>
+        <v>1264.870485931087</v>
       </c>
       <c r="S31" t="n">
-        <v>1176.924553539315</v>
+        <v>1176.924553539316</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.380935677302</v>
+        <v>1068.380935677303</v>
       </c>
       <c r="U31" t="n">
-        <v>895.5419324703665</v>
+        <v>895.5419324703673</v>
       </c>
       <c r="V31" t="n">
-        <v>757.1606294762839</v>
+        <v>757.1606294762847</v>
       </c>
       <c r="W31" t="n">
-        <v>584.0466446511276</v>
+        <v>584.0466446511283</v>
       </c>
       <c r="X31" t="n">
-        <v>472.3602789649145</v>
+        <v>472.3602789649152</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.8708850331887</v>
+        <v>367.8708850331893</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>1619.642009607695</v>
       </c>
       <c r="C32" t="n">
-        <v>1366.982677879087</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D32" t="n">
         <v>1125.020164484141</v>
       </c>
       <c r="E32" t="n">
-        <v>855.5350970977009</v>
+        <v>855.5350970977013</v>
       </c>
       <c r="F32" t="n">
-        <v>560.8523775198976</v>
+        <v>560.8523775198978</v>
       </c>
       <c r="G32" t="n">
-        <v>260.4760008799682</v>
+        <v>260.4760008799683</v>
       </c>
       <c r="H32" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="I32" t="n">
-        <v>74.8391383555112</v>
+        <v>74.83913835551117</v>
       </c>
       <c r="J32" t="n">
-        <v>244.019816538064</v>
+        <v>411.425465558417</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4767253614103</v>
+        <v>979.7750846533056</v>
       </c>
       <c r="L32" t="n">
-        <v>613.5379508096241</v>
+        <v>1296.230694799822</v>
       </c>
       <c r="M32" t="n">
-        <v>1141.821850443206</v>
+        <v>1594.053308615587</v>
       </c>
       <c r="N32" t="n">
-        <v>1918.189169268709</v>
+        <v>1973.766462734449</v>
       </c>
       <c r="O32" t="n">
-        <v>2269.75867787549</v>
+        <v>2588.339398965259</v>
       </c>
       <c r="P32" t="n">
-        <v>2870.596829219641</v>
+        <v>2870.596829219642</v>
       </c>
       <c r="Q32" t="n">
-        <v>3062.77560422765</v>
+        <v>3062.775604227651</v>
       </c>
       <c r="R32" t="n">
-        <v>3136.837651820213</v>
+        <v>3136.837651820214</v>
       </c>
       <c r="S32" t="n">
-        <v>3106.228110769878</v>
+        <v>3106.22811076988</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.518416913469</v>
+        <v>3009.51841691347</v>
       </c>
       <c r="U32" t="n">
-        <v>2872.162556463372</v>
+        <v>2872.162556463373</v>
       </c>
       <c r="V32" t="n">
-        <v>2657.402854331605</v>
+        <v>2657.402854331606</v>
       </c>
       <c r="W32" t="n">
-        <v>2420.937384273295</v>
+        <v>2420.937384273296</v>
       </c>
       <c r="X32" t="n">
-        <v>2163.77481122402</v>
+        <v>2163.774811224021</v>
       </c>
       <c r="Y32" t="n">
-        <v>1889.938664460012</v>
+        <v>1889.938664460013</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>262.2498666451251</v>
+        <v>363.9064448424245</v>
       </c>
       <c r="C33" t="n">
-        <v>204.1000225758023</v>
+        <v>189.4534155612975</v>
       </c>
       <c r="D33" t="n">
-        <v>156.8221911118501</v>
+        <v>156.8221911118503</v>
       </c>
       <c r="E33" t="n">
-        <v>113.8879213181988</v>
+        <v>113.887921318199</v>
       </c>
       <c r="F33" t="n">
-        <v>83.65654855688797</v>
+        <v>83.65654855688805</v>
       </c>
       <c r="G33" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="H33" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="I33" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="J33" t="n">
-        <v>76.79083931477361</v>
+        <v>76.79083931477362</v>
       </c>
       <c r="K33" t="n">
-        <v>178.9663359913589</v>
+        <v>178.966335991359</v>
       </c>
       <c r="L33" t="n">
-        <v>362.6764416676408</v>
+        <v>362.6764416676409</v>
       </c>
       <c r="M33" t="n">
-        <v>596.4143381182392</v>
+        <v>596.4143381182394</v>
       </c>
       <c r="N33" t="n">
         <v>850.7472260948148</v>
@@ -6801,28 +6801,28 @@
         <v>1260.82286411429</v>
       </c>
       <c r="R33" t="n">
-        <v>1207.290487562904</v>
+        <v>1260.82286411429</v>
       </c>
       <c r="S33" t="n">
-        <v>1178.183881915658</v>
+        <v>1231.716258467044</v>
       </c>
       <c r="T33" t="n">
-        <v>982.0749594919841</v>
+        <v>1083.731537689284</v>
       </c>
       <c r="U33" t="n">
-        <v>870.2537267484074</v>
+        <v>971.9103049457071</v>
       </c>
       <c r="V33" t="n">
-        <v>635.1016185166648</v>
+        <v>853.0613819257685</v>
       </c>
       <c r="W33" t="n">
-        <v>497.1674470002673</v>
+        <v>715.1272104093711</v>
       </c>
       <c r="X33" t="n">
-        <v>405.6191320065387</v>
+        <v>507.2757102038382</v>
       </c>
       <c r="Y33" t="n">
-        <v>314.162018453389</v>
+        <v>415.8185966506884</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.525605414754</v>
+        <v>302.5256054147544</v>
       </c>
       <c r="C34" t="n">
-        <v>249.8926076986513</v>
+        <v>249.8926076986516</v>
       </c>
       <c r="D34" t="n">
-        <v>216.0791534981197</v>
+        <v>216.07915349812</v>
       </c>
       <c r="E34" t="n">
-        <v>184.4692451275308</v>
+        <v>184.469245127531</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8824828414246</v>
+        <v>153.8824828414248</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7619364475908</v>
+        <v>101.761936447591</v>
       </c>
       <c r="H34" t="n">
-        <v>65.43852314280667</v>
+        <v>65.43852314280674</v>
       </c>
       <c r="I34" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="J34" t="n">
-        <v>148.6181791141774</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="K34" t="n">
-        <v>384.5059466548958</v>
+        <v>229.9649907362584</v>
       </c>
       <c r="L34" t="n">
-        <v>710.0099048364547</v>
+        <v>280.6302425655891</v>
       </c>
       <c r="M34" t="n">
-        <v>880.6763439382578</v>
+        <v>451.2966816673922</v>
       </c>
       <c r="N34" t="n">
-        <v>943.8638883973632</v>
+        <v>628.4729779525868</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.314725516473</v>
+        <v>941.9238150716969</v>
       </c>
       <c r="P34" t="n">
-        <v>1270.811817714895</v>
+        <v>1203.066156777109</v>
       </c>
       <c r="Q34" t="n">
-        <v>1270.811817714895</v>
+        <v>1270.811817714896</v>
       </c>
       <c r="R34" t="n">
         <v>1264.870485931088</v>
       </c>
       <c r="S34" t="n">
-        <v>1176.924553539316</v>
+        <v>1176.924553539317</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.380935677303</v>
+        <v>1068.380935677304</v>
       </c>
       <c r="U34" t="n">
-        <v>895.5419324703678</v>
+        <v>895.5419324703685</v>
       </c>
       <c r="V34" t="n">
-        <v>757.1606294762851</v>
+        <v>757.1606294762857</v>
       </c>
       <c r="W34" t="n">
-        <v>584.0466446511286</v>
+        <v>584.0466446511292</v>
       </c>
       <c r="X34" t="n">
-        <v>472.3602789649154</v>
+        <v>472.360278964916</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331896</v>
+        <v>367.87088503319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.8582442291581</v>
+        <v>955.858244229159</v>
       </c>
       <c r="C35" t="n">
-        <v>809.075008149706</v>
+        <v>809.0750081497069</v>
       </c>
       <c r="D35" t="n">
-        <v>672.9885904039152</v>
+        <v>672.9885904039161</v>
       </c>
       <c r="E35" t="n">
-        <v>509.3796186666306</v>
+        <v>509.3796186666314</v>
       </c>
       <c r="F35" t="n">
-        <v>320.5729947379826</v>
+        <v>320.5729947379834</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0727137472085</v>
+        <v>126.0727137472086</v>
       </c>
       <c r="H35" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I35" t="n">
-        <v>34.20956155280001</v>
+        <v>52.06174544571853</v>
       </c>
       <c r="J35" t="n">
-        <v>89.40148790926359</v>
+        <v>107.2536718021821</v>
       </c>
       <c r="K35" t="n">
-        <v>222.8583967326098</v>
+        <v>240.7105806255283</v>
       </c>
       <c r="L35" t="n">
-        <v>546.1424665205025</v>
+        <v>443.1774389459555</v>
       </c>
       <c r="M35" t="n">
-        <v>803.0952950331953</v>
+        <v>700.1302674586484</v>
       </c>
       <c r="N35" t="n">
-        <v>1226.438619249095</v>
+        <v>965.8546697514209</v>
       </c>
       <c r="O35" t="n">
-        <v>1464.019376029787</v>
+        <v>1203.435426532113</v>
       </c>
       <c r="P35" t="n">
-        <v>1632.288054458081</v>
+        <v>1371.704104960406</v>
       </c>
       <c r="Q35" t="n">
-        <v>1710.47807764</v>
+        <v>1449.894128142326</v>
       </c>
       <c r="R35" t="n">
-        <v>1710.47807764</v>
+        <v>1627.725337080626</v>
       </c>
       <c r="S35" t="n">
-        <v>1710.47807764</v>
+        <v>1701.494087242931</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="U35" t="n">
-        <v>1678.998312839058</v>
+        <v>1678.998312839059</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.114706356447</v>
+        <v>1570.114706356448</v>
       </c>
       <c r="W35" t="n">
-        <v>1439.525331947293</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.238854547172</v>
+        <v>1288.238854547173</v>
       </c>
       <c r="Y35" t="n">
-        <v>1120.27880343232</v>
+        <v>1120.278803432321</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>479.6044069517947</v>
+        <v>606.401829102781</v>
       </c>
       <c r="C36" t="n">
-        <v>479.6044069517947</v>
+        <v>431.948799821654</v>
       </c>
       <c r="D36" t="n">
-        <v>330.6699972905434</v>
+        <v>366.5799288501397</v>
       </c>
       <c r="E36" t="n">
-        <v>171.4325422850879</v>
+        <v>366.5799288501397</v>
       </c>
       <c r="F36" t="n">
-        <v>171.4325422850879</v>
+        <v>220.0453708770247</v>
       </c>
       <c r="G36" t="n">
-        <v>34.20956155280001</v>
+        <v>82.82239014473674</v>
       </c>
       <c r="H36" t="n">
-        <v>34.20956155280001</v>
+        <v>82.82239014473674</v>
       </c>
       <c r="I36" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J36" t="n">
-        <v>48.26364783116937</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K36" t="n">
         <v>150.4391445077547</v>
@@ -7023,16 +7023,16 @@
         <v>334.1492501840366</v>
       </c>
       <c r="M36" t="n">
-        <v>567.887146634635</v>
+        <v>567.8871466346351</v>
       </c>
       <c r="N36" t="n">
-        <v>822.2200346112104</v>
+        <v>822.2200346112106</v>
       </c>
       <c r="O36" t="n">
-        <v>1032.665143948265</v>
+        <v>1032.665143948266</v>
       </c>
       <c r="P36" t="n">
-        <v>1182.232831116543</v>
+        <v>1182.232831116544</v>
       </c>
       <c r="Q36" t="n">
         <v>1232.295672630686</v>
@@ -7041,25 +7041,25 @@
         <v>1178.7632960793</v>
       </c>
       <c r="S36" t="n">
-        <v>1178.7632960793</v>
+        <v>1033.35350522025</v>
       </c>
       <c r="T36" t="n">
-        <v>1178.7632960793</v>
+        <v>1033.35350522025</v>
       </c>
       <c r="U36" t="n">
-        <v>1172.818158984878</v>
+        <v>1027.408368125828</v>
       </c>
       <c r="V36" t="n">
-        <v>941.6932638855292</v>
+        <v>1014.435540755045</v>
       </c>
       <c r="W36" t="n">
-        <v>687.4559071573275</v>
+        <v>982.3774648878029</v>
       </c>
       <c r="X36" t="n">
-        <v>479.6044069517947</v>
+        <v>982.3774648878029</v>
       </c>
       <c r="Y36" t="n">
-        <v>479.6044069517947</v>
+        <v>774.6171661228491</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.14485066504275</v>
+        <v>97.32686361096852</v>
       </c>
       <c r="C37" t="n">
-        <v>50.14485066504275</v>
+        <v>97.32686361096852</v>
       </c>
       <c r="D37" t="n">
-        <v>50.14485066504275</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="E37" t="n">
-        <v>50.14485066504275</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="F37" t="n">
-        <v>50.14485066504275</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="G37" t="n">
-        <v>50.14485066504275</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H37" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I37" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J37" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="K37" t="n">
-        <v>50.43224858622317</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L37" t="n">
         <v>101.0975004155539</v>
@@ -7114,31 +7114,31 @@
         <v>272.5106599395922</v>
       </c>
       <c r="Q37" t="n">
-        <v>225.3286469936662</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="R37" t="n">
-        <v>225.3286469936662</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="S37" t="n">
-        <v>225.3286469936662</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6611247808086</v>
+        <v>269.8431377267347</v>
       </c>
       <c r="U37" t="n">
-        <v>155.6982172230287</v>
+        <v>202.8802301689547</v>
       </c>
       <c r="V37" t="n">
-        <v>123.1930098781015</v>
+        <v>170.3750228240274</v>
       </c>
       <c r="W37" t="n">
-        <v>55.95512070210046</v>
+        <v>103.1371336480263</v>
       </c>
       <c r="X37" t="n">
-        <v>50.14485066504275</v>
+        <v>97.32686361096852</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.14485066504275</v>
+        <v>97.32686361096852</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.8582442291579</v>
+        <v>955.8582442291583</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497056</v>
+        <v>809.0750081497062</v>
       </c>
       <c r="D38" t="n">
-        <v>672.9885904039147</v>
+        <v>672.9885904039152</v>
       </c>
       <c r="E38" t="n">
-        <v>509.3796186666302</v>
+        <v>509.3796186666307</v>
       </c>
       <c r="F38" t="n">
-        <v>320.5729947379823</v>
+        <v>320.5729947379825</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0727137472086</v>
+        <v>126.0727137472087</v>
       </c>
       <c r="H38" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I38" t="n">
-        <v>34.20956155280001</v>
+        <v>134.8144860050941</v>
       </c>
       <c r="J38" t="n">
-        <v>89.40148790926359</v>
+        <v>190.0064123615577</v>
       </c>
       <c r="K38" t="n">
-        <v>222.8583967326098</v>
+        <v>323.4633211849039</v>
       </c>
       <c r="L38" t="n">
-        <v>425.325255053037</v>
+        <v>525.9301795053311</v>
       </c>
       <c r="M38" t="n">
-        <v>848.6685792689372</v>
+        <v>782.8830080180239</v>
       </c>
       <c r="N38" t="n">
-        <v>1114.39298156171</v>
+        <v>1048.607410310796</v>
       </c>
       <c r="O38" t="n">
-        <v>1464.019376029787</v>
+        <v>1286.188167091488</v>
       </c>
       <c r="P38" t="n">
-        <v>1632.288054458081</v>
+        <v>1454.456845519782</v>
       </c>
       <c r="Q38" t="n">
-        <v>1710.47807764</v>
+        <v>1532.646868701702</v>
       </c>
       <c r="R38" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="S38" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.998312839058</v>
+        <v>1678.998312839059</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.114706356447</v>
+        <v>1570.114706356448</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.525331947292</v>
+        <v>1439.525331947293</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.238854547172</v>
+        <v>1288.238854547173</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.27880343232</v>
+        <v>1120.278803432321</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>398.1187616077426</v>
+        <v>488.9159841926219</v>
       </c>
       <c r="C39" t="n">
-        <v>223.6657323266155</v>
+        <v>488.9159841926219</v>
       </c>
       <c r="D39" t="n">
-        <v>223.6657323266155</v>
+        <v>339.9815745313706</v>
       </c>
       <c r="E39" t="n">
-        <v>223.6657323266155</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="F39" t="n">
-        <v>171.4325422850879</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="G39" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H39" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I39" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J39" t="n">
-        <v>48.26364783116937</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K39" t="n">
         <v>150.4391445077547</v>
@@ -7260,16 +7260,16 @@
         <v>334.1492501840366</v>
       </c>
       <c r="M39" t="n">
-        <v>567.887146634635</v>
+        <v>567.8871466346351</v>
       </c>
       <c r="N39" t="n">
-        <v>822.2200346112104</v>
+        <v>822.2200346112106</v>
       </c>
       <c r="O39" t="n">
-        <v>1032.665143948265</v>
+        <v>1032.665143948266</v>
       </c>
       <c r="P39" t="n">
-        <v>1182.232831116543</v>
+        <v>1182.232831116544</v>
       </c>
       <c r="Q39" t="n">
         <v>1232.295672630686</v>
@@ -7278,25 +7278,25 @@
         <v>1232.295672630686</v>
       </c>
       <c r="S39" t="n">
-        <v>1086.885881771635</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="T39" t="n">
-        <v>1086.885881771635</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="U39" t="n">
-        <v>858.7614638162546</v>
+        <v>1226.350535536265</v>
       </c>
       <c r="V39" t="n">
-        <v>845.7886364454714</v>
+        <v>991.1984273045223</v>
       </c>
       <c r="W39" t="n">
-        <v>813.7305605782293</v>
+        <v>904.5277831631086</v>
       </c>
       <c r="X39" t="n">
-        <v>605.8790603726965</v>
+        <v>696.6762829575757</v>
       </c>
       <c r="Y39" t="n">
-        <v>398.1187616077426</v>
+        <v>488.9159841926219</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="C40" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="D40" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="E40" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="F40" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="G40" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H40" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I40" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J40" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="K40" t="n">
-        <v>50.43224858622317</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L40" t="n">
         <v>101.0975004155539</v>
@@ -7360,22 +7360,22 @@
         <v>272.5106599395922</v>
       </c>
       <c r="T40" t="n">
-        <v>269.8431377267346</v>
+        <v>269.8431377267345</v>
       </c>
       <c r="U40" t="n">
-        <v>202.8802301689546</v>
+        <v>202.8802301689545</v>
       </c>
       <c r="V40" t="n">
-        <v>170.3750228240273</v>
+        <v>107.257720765859</v>
       </c>
       <c r="W40" t="n">
-        <v>103.1371336480262</v>
+        <v>40.01983158985789</v>
       </c>
       <c r="X40" t="n">
-        <v>97.32686361096846</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.32686361096846</v>
+        <v>34.20956155280003</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8582442291581</v>
+        <v>955.8582442291586</v>
       </c>
       <c r="C41" t="n">
-        <v>809.075008149706</v>
+        <v>809.0750081497064</v>
       </c>
       <c r="D41" t="n">
-        <v>672.9885904039152</v>
+        <v>672.9885904039154</v>
       </c>
       <c r="E41" t="n">
-        <v>509.3796186666304</v>
+        <v>509.3796186666307</v>
       </c>
       <c r="F41" t="n">
-        <v>320.5729947379825</v>
+        <v>320.5729947379826</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0727137472086</v>
+        <v>126.0727137472087</v>
       </c>
       <c r="H41" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I41" t="n">
-        <v>34.20956155280001</v>
+        <v>150.0811082176441</v>
       </c>
       <c r="J41" t="n">
-        <v>89.40148790926359</v>
+        <v>205.2730345741077</v>
       </c>
       <c r="K41" t="n">
-        <v>222.8583967326098</v>
+        <v>338.7299433974539</v>
       </c>
       <c r="L41" t="n">
-        <v>643.0831682248636</v>
+        <v>541.196801717881</v>
       </c>
       <c r="M41" t="n">
-        <v>900.0359967375564</v>
+        <v>798.1496302305738</v>
       </c>
       <c r="N41" t="n">
-        <v>1165.760399030329</v>
+        <v>1063.874032523346</v>
       </c>
       <c r="O41" t="n">
-        <v>1403.341155811021</v>
+        <v>1301.454789304038</v>
       </c>
       <c r="P41" t="n">
-        <v>1571.609834239314</v>
+        <v>1469.723467732332</v>
       </c>
       <c r="Q41" t="n">
-        <v>1649.799857421234</v>
+        <v>1547.913490914251</v>
       </c>
       <c r="R41" t="n">
-        <v>1710.47807764</v>
+        <v>1627.725337080627</v>
       </c>
       <c r="S41" t="n">
-        <v>1710.47807764</v>
+        <v>1701.494087242932</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="U41" t="n">
-        <v>1678.998312839058</v>
+        <v>1678.99831283906</v>
       </c>
       <c r="V41" t="n">
-        <v>1570.114706356447</v>
+        <v>1570.114706356448</v>
       </c>
       <c r="W41" t="n">
-        <v>1439.525331947293</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X41" t="n">
-        <v>1288.238854547172</v>
+        <v>1288.238854547173</v>
       </c>
       <c r="Y41" t="n">
-        <v>1120.27880343232</v>
+        <v>1120.278803432321</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>492.42012953933</v>
+        <v>367.9000458393825</v>
       </c>
       <c r="C42" t="n">
-        <v>317.9671002582029</v>
+        <v>193.4470165582555</v>
       </c>
       <c r="D42" t="n">
-        <v>317.9671002582029</v>
+        <v>193.4470165582555</v>
       </c>
       <c r="E42" t="n">
-        <v>317.9671002582029</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="F42" t="n">
-        <v>171.4325422850879</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="G42" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H42" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I42" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J42" t="n">
-        <v>48.26364783116937</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K42" t="n">
         <v>150.4391445077547</v>
@@ -7497,43 +7497,43 @@
         <v>334.1492501840366</v>
       </c>
       <c r="M42" t="n">
-        <v>567.887146634635</v>
+        <v>567.8871466346351</v>
       </c>
       <c r="N42" t="n">
-        <v>822.2200346112104</v>
+        <v>822.2200346112106</v>
       </c>
       <c r="O42" t="n">
-        <v>1032.665143948265</v>
+        <v>1032.665143948266</v>
       </c>
       <c r="P42" t="n">
-        <v>1182.232831116543</v>
+        <v>1182.232831116544</v>
       </c>
       <c r="Q42" t="n">
         <v>1232.295672630686</v>
       </c>
       <c r="R42" t="n">
-        <v>1232.295672630686</v>
+        <v>1178.7632960793</v>
       </c>
       <c r="S42" t="n">
-        <v>1086.885881771635</v>
+        <v>1033.35350522025</v>
       </c>
       <c r="T42" t="n">
-        <v>890.7769593479618</v>
+        <v>837.244582796576</v>
       </c>
       <c r="U42" t="n">
-        <v>662.6525413925809</v>
+        <v>831.2994457021546</v>
       </c>
       <c r="V42" t="n">
-        <v>649.6797140217977</v>
+        <v>596.1473374704119</v>
       </c>
       <c r="W42" t="n">
-        <v>617.6216381545556</v>
+        <v>536.1153828594506</v>
       </c>
       <c r="X42" t="n">
-        <v>617.6216381545556</v>
+        <v>536.1153828594506</v>
       </c>
       <c r="Y42" t="n">
-        <v>617.6216381545556</v>
+        <v>536.1153828594506</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="C43" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="D43" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="E43" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="F43" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="G43" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H43" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I43" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J43" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="K43" t="n">
-        <v>50.43224858622317</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L43" t="n">
         <v>101.0975004155539</v>
@@ -7597,22 +7597,22 @@
         <v>272.5106599395922</v>
       </c>
       <c r="T43" t="n">
-        <v>269.8431377267346</v>
+        <v>269.8431377267345</v>
       </c>
       <c r="U43" t="n">
-        <v>202.8802301689546</v>
+        <v>139.7629281107864</v>
       </c>
       <c r="V43" t="n">
-        <v>170.3750228240273</v>
+        <v>107.257720765859</v>
       </c>
       <c r="W43" t="n">
-        <v>103.1371336480262</v>
+        <v>40.01983158985789</v>
       </c>
       <c r="X43" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.8582442291575</v>
+        <v>955.8582442291582</v>
       </c>
       <c r="C44" t="n">
-        <v>809.0750081497056</v>
+        <v>809.0750081497063</v>
       </c>
       <c r="D44" t="n">
-        <v>672.9885904039147</v>
+        <v>672.9885904039154</v>
       </c>
       <c r="E44" t="n">
-        <v>509.3796186666303</v>
+        <v>509.3796186666306</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5729947379823</v>
+        <v>320.5729947379825</v>
       </c>
       <c r="G44" t="n">
-        <v>126.0727137472086</v>
+        <v>126.0727137472087</v>
       </c>
       <c r="H44" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I44" t="n">
-        <v>34.20956155280001</v>
+        <v>52.06174544571853</v>
       </c>
       <c r="J44" t="n">
-        <v>89.40148790926359</v>
+        <v>107.2536718021821</v>
       </c>
       <c r="K44" t="n">
-        <v>315.5319626879944</v>
+        <v>240.7105806255283</v>
       </c>
       <c r="L44" t="n">
-        <v>517.9988210084216</v>
+        <v>443.1774389459555</v>
       </c>
       <c r="M44" t="n">
-        <v>774.9516495211144</v>
+        <v>700.1302674586484</v>
       </c>
       <c r="N44" t="n">
-        <v>1040.676051813887</v>
+        <v>965.8546697514209</v>
       </c>
       <c r="O44" t="n">
-        <v>1464.019376029787</v>
+        <v>1203.435426532113</v>
       </c>
       <c r="P44" t="n">
-        <v>1632.288054458081</v>
+        <v>1371.704104960407</v>
       </c>
       <c r="Q44" t="n">
-        <v>1710.47807764</v>
+        <v>1449.894128142326</v>
       </c>
       <c r="R44" t="n">
-        <v>1710.47807764</v>
+        <v>1627.725337080626</v>
       </c>
       <c r="S44" t="n">
-        <v>1710.47807764</v>
+        <v>1701.494087242931</v>
       </c>
       <c r="T44" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="U44" t="n">
-        <v>1678.998312839058</v>
+        <v>1678.998312839059</v>
       </c>
       <c r="V44" t="n">
-        <v>1570.114706356447</v>
+        <v>1570.114706356448</v>
       </c>
       <c r="W44" t="n">
-        <v>1439.525331947292</v>
+        <v>1439.525331947293</v>
       </c>
       <c r="X44" t="n">
-        <v>1288.238854547172</v>
+        <v>1288.238854547173</v>
       </c>
       <c r="Y44" t="n">
-        <v>1120.27880343232</v>
+        <v>1120.278803432321</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>241.5548009289548</v>
+        <v>800.5919942060367</v>
       </c>
       <c r="C45" t="n">
-        <v>181.6289204889878</v>
+        <v>626.1389649249097</v>
       </c>
       <c r="D45" t="n">
-        <v>181.6289204889878</v>
+        <v>477.2045552636585</v>
       </c>
       <c r="E45" t="n">
-        <v>181.6289204889878</v>
+        <v>317.967100258203</v>
       </c>
       <c r="F45" t="n">
-        <v>181.6289204889878</v>
+        <v>171.4325422850879</v>
       </c>
       <c r="G45" t="n">
-        <v>181.6289204889878</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H45" t="n">
-        <v>82.82239014473673</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I45" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J45" t="n">
-        <v>48.26364783116937</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K45" t="n">
         <v>150.4391445077547</v>
@@ -7734,16 +7734,16 @@
         <v>334.1492501840366</v>
       </c>
       <c r="M45" t="n">
-        <v>567.887146634635</v>
+        <v>567.8871466346351</v>
       </c>
       <c r="N45" t="n">
-        <v>822.2200346112104</v>
+        <v>822.2200346112106</v>
       </c>
       <c r="O45" t="n">
-        <v>1032.665143948265</v>
+        <v>1032.665143948266</v>
       </c>
       <c r="P45" t="n">
-        <v>1182.232831116543</v>
+        <v>1182.232831116544</v>
       </c>
       <c r="Q45" t="n">
         <v>1232.295672630686</v>
@@ -7752,25 +7752,25 @@
         <v>1232.295672630686</v>
       </c>
       <c r="S45" t="n">
-        <v>1086.885881771635</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="T45" t="n">
-        <v>890.7769593479618</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="U45" t="n">
-        <v>662.6525413925809</v>
+        <v>1226.350535536265</v>
       </c>
       <c r="V45" t="n">
-        <v>649.6797140217977</v>
+        <v>1213.377708165482</v>
       </c>
       <c r="W45" t="n">
-        <v>617.6216381545556</v>
+        <v>1176.567629991059</v>
       </c>
       <c r="X45" t="n">
-        <v>409.7701379490228</v>
+        <v>1176.567629991059</v>
       </c>
       <c r="Y45" t="n">
-        <v>409.7701379490228</v>
+        <v>968.8073312261047</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="C46" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="D46" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="E46" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="F46" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="G46" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H46" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I46" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J46" t="n">
-        <v>34.20956155280001</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="K46" t="n">
-        <v>50.43224858622317</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L46" t="n">
         <v>101.0975004155539</v>
@@ -7831,25 +7831,25 @@
         <v>272.5106599395922</v>
       </c>
       <c r="S46" t="n">
-        <v>209.3933578814238</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="T46" t="n">
-        <v>206.7258356685661</v>
+        <v>269.8431377267345</v>
       </c>
       <c r="U46" t="n">
-        <v>139.7629281107862</v>
+        <v>202.8802301689545</v>
       </c>
       <c r="V46" t="n">
-        <v>107.2577207658588</v>
+        <v>170.3750228240271</v>
       </c>
       <c r="W46" t="n">
-        <v>40.01983158985778</v>
+        <v>103.1371336480259</v>
       </c>
       <c r="X46" t="n">
-        <v>34.20956155280001</v>
+        <v>97.32686361096806</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.20956155280001</v>
+        <v>97.32686361096806</v>
       </c>
     </row>
   </sheetData>
@@ -9878,25 +9878,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>314.4987583521707</v>
       </c>
       <c r="N26" t="n">
-        <v>103.8155683509292</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>24.28902247779733</v>
       </c>
       <c r="M28" t="n">
         <v>178.5096609094456</v>
@@ -10045,13 +10045,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>46.71019281646672</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>129.9931274699217</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>153.4033833134772</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>97.28856143565923</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>23.37940768031371</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>46.71019281646672</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>158.9316356513131</v>
+        <v>8.541696949762809</v>
       </c>
       <c r="N32" t="n">
-        <v>400.6607724309502</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10504,13 +10504,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>10.12418894016722</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10522,7 +10522,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>254.9455259660929</v>
       </c>
       <c r="C11" t="n">
-        <v>237.4845760736198</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>227.0863724320235</v>
+        <v>83.02185779129775</v>
       </c>
       <c r="F11" t="n">
         <v>279.0877300443237</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>284.7244505358284</v>
       </c>
       <c r="H11" t="n">
-        <v>183.1136930274267</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.65528330212894</v>
+        <v>17.65528330212899</v>
       </c>
       <c r="T11" t="n">
-        <v>83.09443458014333</v>
+        <v>83.09443458014337</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>199.9639427727472</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>221.4526530200253</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>258.4496229586659</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>254.9455259660929</v>
       </c>
       <c r="C14" t="n">
-        <v>237.4845760736199</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>226.8947259232953</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>254.1420543748741</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212901</v>
+        <v>17.65528330212899</v>
       </c>
       <c r="T14" t="n">
-        <v>83.0944345801434</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.3341395078953</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>199.9639427727473</v>
+        <v>45.28786766494144</v>
       </c>
       <c r="W14" t="n">
-        <v>221.4526530200254</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>189.4381099912245</v>
+        <v>241.9427849810814</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>258.4496229586659</v>
       </c>
     </row>
     <row r="15">
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913952.2831811877</v>
+        <v>913952.2831811876</v>
       </c>
     </row>
     <row r="6">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368674.3524226673</v>
+        <v>368674.3524226671</v>
       </c>
       <c r="C2" t="n">
-        <v>368674.3524226673</v>
+        <v>368674.3524226672</v>
       </c>
       <c r="D2" t="n">
         <v>368674.3524226673</v>
       </c>
       <c r="E2" t="n">
-        <v>316368.0980242571</v>
+        <v>316368.0980242572</v>
       </c>
       <c r="F2" t="n">
-        <v>316368.0980242571</v>
+        <v>316368.0980242572</v>
       </c>
       <c r="G2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="H2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="I2" t="n">
         <v>369468.7964389275</v>
       </c>
       <c r="J2" t="n">
+        <v>369468.7964389276</v>
+      </c>
+      <c r="K2" t="n">
         <v>369468.7964389275</v>
       </c>
-      <c r="K2" t="n">
-        <v>369468.7964389276</v>
-      </c>
       <c r="L2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389277</v>
       </c>
       <c r="M2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389277</v>
       </c>
       <c r="N2" t="n">
+        <v>369468.7964389275</v>
+      </c>
+      <c r="O2" t="n">
         <v>369468.7964389277</v>
-      </c>
-      <c r="O2" t="n">
-        <v>369468.7964389276</v>
       </c>
       <c r="P2" t="n">
         <v>369468.7964389277</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>766266.5351224334</v>
+        <v>766266.5351224333</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92112.12268774903</v>
+        <v>92112.12268774894</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92112.12268774894</v>
+        <v>92112.12268774887</v>
       </c>
       <c r="M3" t="n">
-        <v>83853.86775413106</v>
+        <v>83853.86775413112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26445,7 +26445,7 @@
         <v>231159.1105944614</v>
       </c>
       <c r="L4" t="n">
-        <v>231159.1105944613</v>
+        <v>231159.1105944614</v>
       </c>
       <c r="M4" t="n">
         <v>229069.74047253</v>
@@ -26479,7 +26479,7 @@
         <v>47553.01820892904</v>
       </c>
       <c r="F5" t="n">
-        <v>47553.01820892903</v>
+        <v>47553.01820892904</v>
       </c>
       <c r="G5" t="n">
         <v>57232.73576172449</v>
@@ -26491,25 +26491,25 @@
         <v>57232.73576172449</v>
       </c>
       <c r="J5" t="n">
-        <v>72488.96662948882</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="K5" t="n">
-        <v>72488.96662948882</v>
+        <v>72488.96662948883</v>
       </c>
       <c r="L5" t="n">
-        <v>72488.96662948882</v>
+        <v>72488.96662948883</v>
       </c>
       <c r="M5" t="n">
-        <v>59620.18961222714</v>
+        <v>59620.18961222716</v>
       </c>
       <c r="N5" t="n">
-        <v>59620.18961222714</v>
+        <v>59620.18961222716</v>
       </c>
       <c r="O5" t="n">
-        <v>59620.18961222714</v>
+        <v>59620.18961222716</v>
       </c>
       <c r="P5" t="n">
-        <v>59620.18961222714</v>
+        <v>59620.18961222716</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-132569.2075090639</v>
+        <v>-132573.6210869323</v>
       </c>
       <c r="C6" t="n">
-        <v>-132569.207509064</v>
+        <v>-132573.6210869321</v>
       </c>
       <c r="D6" t="n">
-        <v>-132569.207509064</v>
+        <v>-132573.621086932</v>
       </c>
       <c r="E6" t="n">
-        <v>-659125.777080309</v>
+        <v>-659420.7809603902</v>
       </c>
       <c r="F6" t="n">
-        <v>107140.7580421246</v>
+        <v>106845.754162043</v>
       </c>
       <c r="G6" t="n">
-        <v>-8657.939492658697</v>
+        <v>-8657.939492658501</v>
       </c>
       <c r="H6" t="n">
-        <v>83454.1831950904</v>
+        <v>83454.18319509045</v>
       </c>
       <c r="I6" t="n">
-        <v>83454.18319509036</v>
+        <v>83454.18319509034</v>
       </c>
       <c r="J6" t="n">
-        <v>-46063.36232153275</v>
+        <v>-46063.36232153265</v>
       </c>
       <c r="K6" t="n">
-        <v>65820.71921497745</v>
+        <v>65820.7192149772</v>
       </c>
       <c r="L6" t="n">
-        <v>-26291.40347277148</v>
+        <v>-26291.40347277137</v>
       </c>
       <c r="M6" t="n">
-        <v>-3075.001399960573</v>
+        <v>-3075.001399960616</v>
       </c>
       <c r="N6" t="n">
-        <v>80778.8663541706</v>
+        <v>80778.86635417044</v>
       </c>
       <c r="O6" t="n">
-        <v>80778.86635417049</v>
+        <v>80778.86635417053</v>
       </c>
       <c r="P6" t="n">
-        <v>80778.86635417058</v>
+        <v>80778.86635417053</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>127.7883156973877</v>
       </c>
       <c r="F2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G2" t="n">
-        <v>242.9284690570739</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="H2" t="n">
         <v>242.9284690570739</v>
@@ -26719,13 +26719,13 @@
         <v>219.95748805235</v>
       </c>
       <c r="N2" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="O2" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="P2" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
     </row>
     <row r="3">
@@ -26802,34 +26802,34 @@
         <v>356.5898935450531</v>
       </c>
       <c r="G4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450531</v>
       </c>
       <c r="H4" t="n">
-        <v>356.5898935450528</v>
+        <v>356.589893545053</v>
       </c>
       <c r="I4" t="n">
-        <v>356.589893545053</v>
+        <v>356.5898935450527</v>
       </c>
       <c r="J4" t="n">
-        <v>784.2094129550532</v>
+        <v>784.209412955053</v>
       </c>
       <c r="K4" t="n">
-        <v>784.2094129550532</v>
+        <v>784.2094129550534</v>
       </c>
       <c r="L4" t="n">
-        <v>784.2094129550532</v>
+        <v>784.2094129550534</v>
       </c>
       <c r="M4" t="n">
-        <v>427.6195194100001</v>
+        <v>427.6195194100004</v>
       </c>
       <c r="N4" t="n">
-        <v>427.6195194100001</v>
+        <v>427.6195194100004</v>
       </c>
       <c r="O4" t="n">
-        <v>427.6195194100001</v>
+        <v>427.6195194100004</v>
       </c>
       <c r="P4" t="n">
-        <v>427.6195194100001</v>
+        <v>427.6195194100004</v>
       </c>
     </row>
   </sheetData>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M2" t="n">
-        <v>104.8173346926638</v>
+        <v>104.8173346926639</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450531</v>
+        <v>356.589893545053</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194100002</v>
+        <v>427.6195194100003</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>356.5898935450531</v>
+        <v>356.589893545053</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28169,25 +28169,25 @@
         <v>127.7883156973877</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D12" t="n">
         <v>127.7883156973877</v>
       </c>
       <c r="E12" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>127.7883156973877</v>
       </c>
       <c r="H12" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,10 +28220,10 @@
         <v>127.7883156973877</v>
       </c>
       <c r="T12" t="n">
-        <v>48.94965194982592</v>
+        <v>67.10650159926469</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V12" t="n">
         <v>127.7883156973877</v>
@@ -28235,7 +28235,7 @@
         <v>127.7883156973877</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="13">
@@ -28269,10 +28269,10 @@
         <v>127.7883156973877</v>
       </c>
       <c r="J13" t="n">
-        <v>127.7883156973877</v>
+        <v>98.69197501825846</v>
       </c>
       <c r="K13" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>127.7883156973877</v>
@@ -28284,16 +28284,16 @@
         <v>127.7883156973877</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="P13" t="n">
         <v>127.7883156973877</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.92573114652546</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="R13" t="n">
-        <v>127.7883156973877</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S13" t="n">
         <v>127.7883156973877</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I14" t="n">
         <v>102.9155217242246</v>
@@ -28375,25 +28375,25 @@
         <v>40.33000427628923</v>
       </c>
       <c r="S14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="15">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.7883156973876</v>
+        <v>48.94965194982623</v>
       </c>
       <c r="C15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H15" t="n">
         <v>97.81846504080859</v>
@@ -28454,22 +28454,22 @@
         <v>52.99705278587241</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U15" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>48.94965194982635</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="J16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="K16" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>51.9817822017924</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="M16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="N16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="O16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="P16" t="n">
-        <v>127.7883156973876</v>
+        <v>91.92573114652626</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.71019281646672</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="R16" t="n">
-        <v>121.0220718256556</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="S16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="C17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="D17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="E17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="F17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="G17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="H17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="I17" t="n">
         <v>102.9155217242246</v>
@@ -28618,19 +28618,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="V17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="W17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="X17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="Y17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.9284690570738</v>
       </c>
     </row>
     <row r="18">
@@ -28646,22 +28646,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T18" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V18" t="n">
-        <v>206.3730878404062</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>23.5179861691272</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28722,7 +28722,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>74.16492753591965</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>46.71019281646672</v>
       </c>
       <c r="R19" t="n">
         <v>121.0220718256556</v>
@@ -28776,13 +28776,13 @@
         <v>222.598335043079</v>
       </c>
       <c r="U19" t="n">
-        <v>242.9284690570739</v>
+        <v>103.1363826778993</v>
       </c>
       <c r="V19" t="n">
-        <v>242.9284690570739</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="W19" t="n">
-        <v>242.9284690570739</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28931,22 +28931,22 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T21" t="n">
-        <v>169.1115787580281</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>242.9284690570739</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>1.987924943149267</v>
       </c>
     </row>
     <row r="22">
@@ -28974,13 +28974,13 @@
         <v>166.7394942895816</v>
       </c>
       <c r="H22" t="n">
-        <v>151.1003325314225</v>
+        <v>49.82367322202724</v>
       </c>
       <c r="I22" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J22" t="n">
-        <v>38.51542706977951</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29013,7 +29013,7 @@
         <v>222.598335043079</v>
       </c>
       <c r="U22" t="n">
-        <v>103.1363826778991</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V22" t="n">
         <v>242.9284690570739</v>
@@ -29123,16 +29123,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>23.5179861691272</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I24" t="n">
         <v>48.12670030601735</v>
@@ -29168,22 +29168,22 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U24" t="n">
         <v>225.8431737758271</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>242.9284690570739</v>
       </c>
       <c r="X24" t="n">
-        <v>175.7386338576738</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29202,7 +29202,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>127.6639480930501</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -29241,13 +29241,13 @@
         <v>46.71019281646672</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S25" t="n">
         <v>202.20662642754</v>
       </c>
       <c r="T25" t="n">
-        <v>222.598335043079</v>
+        <v>82.80624866390426</v>
       </c>
       <c r="U25" t="n">
         <v>242.9284690570739</v>
@@ -29302,13 +29302,13 @@
         <v>115.1401533596862</v>
       </c>
       <c r="L26" t="n">
+        <v>2.308274287936879</v>
+      </c>
+      <c r="M26" t="n">
         <v>115.1401533596862</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
       <c r="N26" t="n">
-        <v>108.9103626380701</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="O26" t="n">
         <v>115.1401533596862</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C27" t="n">
         <v>115.1401533596862</v>
@@ -29402,16 +29402,16 @@
         <v>52.99705278587241</v>
       </c>
       <c r="S27" t="n">
-        <v>47.64295962945366</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>47.6429596294536</v>
       </c>
       <c r="U27" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>115.1401533596862</v>
@@ -29454,10 +29454,10 @@
         <v>115.1401533596862</v>
       </c>
       <c r="J28" t="n">
-        <v>4.879185747056169</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K28" t="n">
-        <v>23.43872986796313</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29466,13 +29466,13 @@
         <v>115.1401533596862</v>
       </c>
       <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>115.1401533596862</v>
-      </c>
-      <c r="O28" t="n">
-        <v>115.1401533596862</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29551,13 +29551,13 @@
         <v>115.1401533596862</v>
       </c>
       <c r="P29" t="n">
-        <v>42.4027992427881</v>
+        <v>0.8371630074177197</v>
       </c>
       <c r="Q29" t="n">
         <v>115.1401533596862</v>
       </c>
       <c r="R29" t="n">
-        <v>40.33000427628923</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S29" t="n">
         <v>115.1401533596862</v>
@@ -29588,13 +29588,13 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
         <v>115.1401533596862</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
       <c r="D30" t="n">
-        <v>47.64295962945275</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E30" t="n">
         <v>115.1401533596862</v>
@@ -29603,7 +29603,7 @@
         <v>115.1401533596862</v>
       </c>
       <c r="G30" t="n">
-        <v>115.1401533596862</v>
+        <v>47.6429596294536</v>
       </c>
       <c r="H30" t="n">
         <v>97.81846504080859</v>
@@ -29645,7 +29645,7 @@
         <v>115.1401533596862</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V30" t="n">
         <v>115.1401533596862</v>
@@ -29657,7 +29657,7 @@
         <v>115.1401533596862</v>
       </c>
       <c r="Y30" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29691,28 +29691,28 @@
         <v>115.1401533596862</v>
       </c>
       <c r="J31" t="n">
+        <v>4.879185747056169</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>115.1401533596862</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>115.1401533596862</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>115.1401533596862</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>115.1401533596862</v>
@@ -29773,19 +29773,19 @@
         <v>115.1401533596861</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L32" t="n">
-        <v>33.93370416948143</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M32" t="n">
-        <v>115.1401533596861</v>
+        <v>32.74091446748199</v>
       </c>
       <c r="N32" t="n">
         <v>115.1401533596861</v>
       </c>
       <c r="O32" t="n">
-        <v>115.1401533596861</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>115.1401533596861</v>
@@ -29828,10 +29828,10 @@
         <v>115.1401533596861</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
         <v>115.1401533596861</v>
-      </c>
-      <c r="D33" t="n">
-        <v>100.6400124153261</v>
       </c>
       <c r="E33" t="n">
         <v>115.1401533596861</v>
@@ -29873,25 +29873,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S33" t="n">
         <v>115.1401533596861</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>47.64295962945448</v>
       </c>
       <c r="U33" t="n">
         <v>115.1401533596861</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W33" t="n">
         <v>115.1401533596861</v>
       </c>
       <c r="X33" t="n">
-        <v>115.1401533596861</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>115.1401533596861</v>
@@ -29928,28 +29928,28 @@
         <v>115.1401533596861</v>
       </c>
       <c r="J34" t="n">
-        <v>115.1401533596861</v>
+        <v>4.879185747056169</v>
       </c>
       <c r="K34" t="n">
-        <v>115.1401533596861</v>
+        <v>45.78709291436866</v>
       </c>
       <c r="L34" t="n">
-        <v>115.1401533596861</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>115.1401533596861</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O34" t="n">
         <v>115.1401533596861</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.71019281646672</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="R34" t="n">
         <v>115.1401533596861</v>
@@ -30004,7 +30004,7 @@
         <v>219.95748805235</v>
       </c>
       <c r="I35" t="n">
-        <v>102.9155217242246</v>
+        <v>120.9480307069705</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30013,13 +30013,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>122.0375873408742</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>159.2110322455833</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30031,13 +30031,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.33000427628923</v>
+        <v>219.95748805235</v>
       </c>
       <c r="S35" t="n">
-        <v>145.4435989995167</v>
+        <v>219.95748805235</v>
       </c>
       <c r="T35" t="n">
-        <v>210.882750277531</v>
+        <v>219.95748805235</v>
       </c>
       <c r="U35" t="n">
         <v>219.95748805235</v>
@@ -30062,19 +30062,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>82.7298833028396</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>97.81846504080859</v>
       </c>
       <c r="I36" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>194.1478331994369</v>
@@ -30122,16 +30122,16 @@
         <v>219.95748805235</v>
       </c>
       <c r="V36" t="n">
-        <v>3.986941001069511</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30147,7 +30147,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>86.12934398062556</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30159,7 +30159,7 @@
         <v>166.7394942895816</v>
       </c>
       <c r="H37" t="n">
-        <v>135.3243963103021</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I37" t="n">
         <v>117.8149057650245</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>46.71019281646672</v>
       </c>
       <c r="R37" t="n">
         <v>121.0220718256556</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="C38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="D38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="E38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="F38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="G38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="H38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="I38" t="n">
-        <v>102.9155217242246</v>
+        <v>204.5366575346226</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30253,13 +30253,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>168.0712077810174</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>113.1774118054399</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.33000427628923</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="S38" t="n">
         <v>145.4435989995167</v>
@@ -30277,19 +30277,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
     </row>
     <row r="39">
@@ -30302,19 +30302,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>93.35835425227154</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H39" t="n">
         <v>97.81846504080859</v>
@@ -30350,19 +30350,19 @@
         <v>52.99705278587241</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T39" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V39" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>219.95748805235</v>
+        <v>165.89104546092</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.3458511443505</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30432,19 +30432,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T40" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U40" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V40" t="n">
-        <v>219.95748805235</v>
+        <v>157.4713590147635</v>
       </c>
       <c r="W40" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X40" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="C41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="D41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="E41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="F41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="G41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="H41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="I41" t="n">
-        <v>102.9155217242246</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>101.621135810397</v>
+        <v>120.9480307069713</v>
       </c>
       <c r="S41" t="n">
-        <v>145.4435989995167</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="T41" t="n">
-        <v>210.882750277531</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>42.58369012079397</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30545,13 +30545,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H42" t="n">
         <v>97.81846504080859</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30593,13 +30593,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V42" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>219.95748805235</v>
+        <v>192.2633480960679</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -30669,19 +30669,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T43" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U43" t="n">
-        <v>219.95748805235</v>
+        <v>157.4713590147636</v>
       </c>
       <c r="V43" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W43" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X43" t="n">
-        <v>157.4713590147632</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,34 +30694,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="C44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="D44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="E44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="F44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="G44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="H44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="I44" t="n">
-        <v>102.9155217242246</v>
+        <v>120.9480307069705</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>93.60966258119652</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>187.638957005261</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.33000427628923</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="S44" t="n">
-        <v>145.4435989995167</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="T44" t="n">
-        <v>210.882750277531</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
     </row>
     <row r="45">
@@ -30776,25 +30776,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>113.3818773527485</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,25 +30824,25 @@
         <v>52.99705278587241</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V45" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W45" t="n">
-        <v>219.95748805235</v>
+        <v>215.2530057682407</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.3458511443509</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -30903,22 +30903,22 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S46" t="n">
-        <v>139.7204973899532</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T46" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U46" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V46" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W46" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X46" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -35562,34 +35562,34 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.973409932363182</v>
+        <v>9.97340993236314</v>
       </c>
       <c r="J13" t="n">
-        <v>89.27288862760821</v>
+        <v>60.17654794847896</v>
       </c>
       <c r="K13" t="n">
-        <v>144.174868256401</v>
+        <v>16.3865525590133</v>
       </c>
       <c r="L13" t="n">
         <v>178.9653377472167</v>
       </c>
       <c r="M13" t="n">
-        <v>185.0385048647755</v>
+        <v>185.0385048647754</v>
       </c>
       <c r="N13" t="n">
-        <v>191.6141181813326</v>
+        <v>191.6141181813325</v>
       </c>
       <c r="O13" t="n">
-        <v>38.43518746545175</v>
+        <v>166.2235031628394</v>
       </c>
       <c r="P13" t="n">
         <v>141.42174216044</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.21553833005874</v>
+        <v>81.07812288092096</v>
       </c>
       <c r="R13" t="n">
-        <v>6.766243871732144</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35799,16 +35799,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.973409932363111</v>
+        <v>9.97340993236314</v>
       </c>
       <c r="J16" t="n">
-        <v>89.27288862760814</v>
+        <v>89.27288862760817</v>
       </c>
       <c r="K16" t="n">
-        <v>144.1748682564009</v>
+        <v>16.3865525590133</v>
       </c>
       <c r="L16" t="n">
-        <v>103.1588042516214</v>
+        <v>178.9653377472167</v>
       </c>
       <c r="M16" t="n">
         <v>185.0385048647754</v>
@@ -35820,13 +35820,13 @@
         <v>166.2235031628394</v>
       </c>
       <c r="P16" t="n">
-        <v>141.42174216044</v>
+        <v>105.5591576095786</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>81.07812288092096</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.766243871732101</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>12.22463163546158</v>
+        <v>12.22463163546159</v>
       </c>
       <c r="J26" t="n">
         <v>170.8895739217706</v>
@@ -36598,25 +36598,25 @@
         <v>249.9451117671066</v>
       </c>
       <c r="L26" t="n">
-        <v>319.6521314611278</v>
+        <v>624.4814669398289</v>
       </c>
       <c r="M26" t="n">
-        <v>259.5483116289827</v>
+        <v>689.1872233408395</v>
       </c>
       <c r="N26" t="n">
-        <v>481.1344181534161</v>
+        <v>383.548640524103</v>
       </c>
       <c r="O26" t="n">
-        <v>735.9208970271707</v>
+        <v>355.1207157644253</v>
       </c>
       <c r="P26" t="n">
-        <v>606.9072235799504</v>
+        <v>285.1085154084678</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.1199747555644</v>
+        <v>194.1199747555645</v>
       </c>
       <c r="R26" t="n">
-        <v>74.81014908339692</v>
+        <v>140.5265689563794</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>76.62472628990666</v>
       </c>
       <c r="K28" t="n">
-        <v>146.569048771629</v>
+        <v>16.3865525590133</v>
       </c>
       <c r="L28" t="n">
-        <v>51.17702204982902</v>
+        <v>75.46604452762635</v>
       </c>
       <c r="M28" t="n">
         <v>350.9000034365196</v>
       </c>
       <c r="N28" t="n">
-        <v>350.7836726880928</v>
+        <v>235.6435193284066</v>
       </c>
       <c r="O28" t="n">
-        <v>153.5753408251379</v>
+        <v>201.4768538313342</v>
       </c>
       <c r="P28" t="n">
-        <v>148.6399897770934</v>
+        <v>263.7801431367796</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.63276556128474</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>12.22463163546166</v>
+        <v>12.22463163546159</v>
       </c>
       <c r="J29" t="n">
         <v>170.8895739217706</v>
       </c>
       <c r="K29" t="n">
-        <v>379.9382392370284</v>
+        <v>574.0905243382713</v>
       </c>
       <c r="L29" t="n">
-        <v>319.6521314611279</v>
+        <v>319.6521314611278</v>
       </c>
       <c r="M29" t="n">
-        <v>374.6884649886689</v>
+        <v>374.6884649886688</v>
       </c>
       <c r="N29" t="n">
         <v>383.548640524103</v>
       </c>
       <c r="O29" t="n">
-        <v>735.9208970271707</v>
+        <v>355.1207157644253</v>
       </c>
       <c r="P29" t="n">
-        <v>534.1698694630524</v>
+        <v>492.604233227682</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.1199747555646</v>
+        <v>347.5233580690417</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>74.81014908339694</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>76.62472628990673</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>238.2704722633521</v>
+        <v>123.1303189036658</v>
       </c>
       <c r="L31" t="n">
-        <v>51.17702204982902</v>
+        <v>328.7918769510696</v>
       </c>
       <c r="M31" t="n">
-        <v>154.538750603047</v>
+        <v>350.9000034365196</v>
       </c>
       <c r="N31" t="n">
-        <v>350.7836726880929</v>
+        <v>63.82580248394484</v>
       </c>
       <c r="O31" t="n">
-        <v>201.4768538313342</v>
+        <v>316.6170071910204</v>
       </c>
       <c r="P31" t="n">
-        <v>13.63342646305233</v>
+        <v>37.01283414336604</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.772918920971</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>12.22463163546156</v>
+        <v>12.22463163546151</v>
       </c>
       <c r="J32" t="n">
-        <v>170.8895739217706</v>
+        <v>339.9861890938442</v>
       </c>
       <c r="K32" t="n">
-        <v>134.8049584074204</v>
+        <v>574.0905243382713</v>
       </c>
       <c r="L32" t="n">
-        <v>238.445682270923</v>
+        <v>319.6521314611277</v>
       </c>
       <c r="M32" t="n">
-        <v>533.6201006399818</v>
+        <v>300.8309230462274</v>
       </c>
       <c r="N32" t="n">
-        <v>784.2094129550532</v>
+        <v>383.5486405241029</v>
       </c>
       <c r="O32" t="n">
-        <v>355.1207157644253</v>
+        <v>620.7807436674844</v>
       </c>
       <c r="P32" t="n">
-        <v>606.9072235799504</v>
+        <v>285.1085154084677</v>
       </c>
       <c r="Q32" t="n">
         <v>194.1199747555644</v>
       </c>
       <c r="R32" t="n">
-        <v>74.81014908339691</v>
+        <v>74.81014908339685</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>86.74891523007385</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>238.270472263352</v>
+        <v>168.9174118180345</v>
       </c>
       <c r="L34" t="n">
-        <v>328.7918769510696</v>
+        <v>51.17702204982902</v>
       </c>
       <c r="M34" t="n">
-        <v>172.3903425270739</v>
+        <v>172.3903425270738</v>
       </c>
       <c r="N34" t="n">
-        <v>63.82580248394484</v>
+        <v>178.9659558436309</v>
       </c>
       <c r="O34" t="n">
         <v>316.6170071910203</v>
       </c>
       <c r="P34" t="n">
-        <v>13.63342646305233</v>
+        <v>263.7801431367795</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>68.42996054321937</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>18.03250898274596</v>
       </c>
       <c r="J35" t="n">
         <v>55.74942056208442</v>
@@ -37309,13 +37309,13 @@
         <v>134.8049584074204</v>
       </c>
       <c r="L35" t="n">
-        <v>326.5495654423158</v>
+        <v>204.5119781014416</v>
       </c>
       <c r="M35" t="n">
         <v>259.5483116289827</v>
       </c>
       <c r="N35" t="n">
-        <v>427.6195194100001</v>
+        <v>268.4084871644168</v>
       </c>
       <c r="O35" t="n">
         <v>239.9805624047391</v>
@@ -37327,13 +37327,13 @@
         <v>78.9798213958783</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>179.6274837760607</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>74.51388905283329</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>9.074737774818917</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>101.6211358103981</v>
       </c>
       <c r="J38" t="n">
         <v>55.74942056208442</v>
@@ -37549,13 +37549,13 @@
         <v>204.5119781014416</v>
       </c>
       <c r="M38" t="n">
-        <v>427.6195194100001</v>
+        <v>259.5483116289827</v>
       </c>
       <c r="N38" t="n">
         <v>268.4084871644168</v>
       </c>
       <c r="O38" t="n">
-        <v>353.157974210179</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P38" t="n">
         <v>169.9683620487816</v>
@@ -37564,7 +37564,7 @@
         <v>78.9798213958783</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>179.6274837760606</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>117.0419663281253</v>
       </c>
       <c r="J41" t="n">
         <v>55.74942056208442</v>
@@ -37783,7 +37783,7 @@
         <v>134.8049584074204</v>
       </c>
       <c r="L41" t="n">
-        <v>424.4694661537916</v>
+        <v>204.5119781014416</v>
       </c>
       <c r="M41" t="n">
         <v>259.5483116289827</v>
@@ -37801,13 +37801,13 @@
         <v>78.9798213958783</v>
       </c>
       <c r="R41" t="n">
-        <v>61.29113153410776</v>
+        <v>80.61802643068211</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>74.51388905283321</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>9.074737774818832</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.03250898274596</v>
       </c>
       <c r="J44" t="n">
         <v>55.74942056208442</v>
       </c>
       <c r="K44" t="n">
-        <v>228.4146209886169</v>
+        <v>134.8049584074204</v>
       </c>
       <c r="L44" t="n">
         <v>204.5119781014416</v>
@@ -38029,7 +38029,7 @@
         <v>268.4084871644168</v>
       </c>
       <c r="O44" t="n">
-        <v>427.6195194100001</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P44" t="n">
         <v>169.9683620487816</v>
@@ -38038,13 +38038,13 @@
         <v>78.9798213958783</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>179.6274837760606</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>74.51388905283321</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>9.074737774818832</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
